--- a/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -13999,17 +13999,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>1106130001</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ASPIDISTRA</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>C17A110</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14019,49 +14019,49 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H150" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I150" s="4" t="n">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="J150" s="4" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="K150" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L150" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N150" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O150" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I150" s="4" t="n">
-        <v>83.97</v>
-      </c>
-      <c r="J150" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="K150" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L150" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M150" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N150" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O150" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="P150" s="4" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q150" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R150" s="4" t="n">
-        <v>196.67</v>
+        <v>213.33</v>
       </c>
       <c r="S150" s="5" t="n">
         <v>30</v>
@@ -14073,34 +14073,34 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W150" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1106130001</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ASPIDISTRA</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C17A110</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -14110,49 +14110,49 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H151" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" s="4" t="n">
+        <v>83.97</v>
+      </c>
+      <c r="J151" s="4" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="K151" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L151" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I151" s="4" t="n">
-        <v>79.65000000000001</v>
-      </c>
-      <c r="J151" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="K151" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L151" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M151" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N151" s="5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P151" s="4" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q151" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R151" s="4" t="n">
-        <v>213.33</v>
+        <v>196.67</v>
       </c>
       <c r="S151" s="5" t="n">
         <v>30</v>
@@ -14164,17 +14164,17 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V151" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W151" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17513,17 +17513,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M14A55</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -17533,88 +17533,88 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>80.84</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>48.45</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M14A55</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -17624,71 +17624,71 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>68.23999999999999</v>
+        <v>80.84</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>37</v>
+        <v>48.45</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -20773,17 +20773,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1105050020</t>
+          <t>1108140017</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON BRASIL</t>
+          <t>HOYA KRIMSON QUEEN</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -20808,13 +20808,13 @@
         <v>5</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>49.95</v>
+        <v>53.25</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>25.16</v>
+        <v>28.16</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L46" s="4" t="n">
         <v>0</v>
@@ -20826,55 +20826,55 @@
         <v>2.4</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T46" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1108140017</t>
+          <t>1105050020</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HOYA KRIMSON QUEEN</t>
+          <t>PHILODENDRON BRASIL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -20899,13 +20899,13 @@
         <v>5</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>53.25</v>
+        <v>49.95</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>28.16</v>
+        <v>25.16</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
         <v>0</v>
@@ -20917,38 +20917,38 @@
         <v>2.4</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T47" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T47" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -21501,61 +21501,69 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1602010078</t>
+          <t>1305200001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr"/>
-      <c r="D54" s="3" t="inlineStr"/>
+          <t>OXALIS MIX</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I54" s="4" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="J54" s="4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K54" s="4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L54" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I54" s="4" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="J54" s="4" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="K54" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L54" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M54" s="5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>30</v>
@@ -21567,86 +21575,78 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1305200001</t>
+          <t>1602010078</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>OXALIS MIX</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>M13A15</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>45.43</v>
+        <v>52.49</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>21.7</v>
+        <v>28.12</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>87.5</v>
+        <v>33.33</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -21658,17 +21658,17 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26482,17 +26482,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>1502080006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>PORTULACARIA MIX</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -26502,88 +26502,88 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>43.89</v>
+        <v>38.96</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>24.72</v>
+        <v>20.24</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>36.67</v>
+        <v>37.5</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>196.67</v>
+        <v>106.67</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T109" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T109" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1104020006</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>ORNITHOGALUM DUBIUM</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -26605,76 +26605,76 @@
         <v>30</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>38.96</v>
+        <v>35.7</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>20.24</v>
+        <v>17.27</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>106.67</v>
+        <v>306.67</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T110" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T110" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>1104020006</t>
+          <t>1502080006</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ORNITHOGALUM DUBIUM</t>
+          <t>PORTULACARIA MIX</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -26684,49 +26684,49 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>35.7</v>
+        <v>43.89</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>17.27</v>
+        <v>24.72</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>75</v>
+        <v>36.67</v>
       </c>
       <c r="L111" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="Q111" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S111" s="5" t="n">
         <v>30</v>
@@ -26738,17 +26738,17 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27748,12 +27748,12 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1602010087</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TETERA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
@@ -27775,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>34.49</v>
+        <v>34.95</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>17.35</v>
+        <v>17.77</v>
       </c>
       <c r="K123" s="4" t="n">
         <v>50</v>
@@ -27831,12 +27831,12 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010087</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TETERA PEQUEÑA</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
@@ -27858,10 +27858,10 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>34.95</v>
+        <v>34.49</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>17.77</v>
+        <v>17.35</v>
       </c>
       <c r="K124" s="4" t="n">
         <v>50</v>
@@ -35697,17 +35697,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1108140019</t>
+          <t>1105070005</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>SENECIO MIX</t>
+          <t>SYNGONIUM PINK</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>C20COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -35732,13 +35732,13 @@
         <v>2</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>28.98</v>
+        <v>18.98</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>19.11</v>
+        <v>10.01</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -35750,55 +35750,55 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T54" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1105070005</t>
+          <t>1108140019</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM PINK</t>
+          <t>SENECIO MIX</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>C20COLG</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -35823,13 +35823,13 @@
         <v>2</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>18.98</v>
+        <v>28.98</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>10.01</v>
+        <v>19.11</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -35841,38 +35841,38 @@
         <v>1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -36963,17 +36963,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>1106020003</t>
+          <t>1105070006</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA WENTII</t>
+          <t>SYNGONIUM MOTTLED</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -36995,37 +36995,37 @@
         <v>30</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>17.95</v>
+        <v>17</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>16.67</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>246.67</v>
+        <v>306.67</v>
       </c>
       <c r="S68" s="5" t="n">
         <v>30</v>
@@ -37037,12 +37037,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -37054,17 +37054,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>1105010025</t>
+          <t>1106020003</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
+          <t>ALOCASIA WENTII</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -37089,16 +37089,16 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.5</v>
+        <v>17.95</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K69" s="4" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M69" s="5" t="n">
         <v>0.2</v>
@@ -37107,55 +37107,55 @@
         <v>0.5</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>0</v>
+        <v>246.67</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T69" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 18/03/2025</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>1105070006</t>
+          <t>1105010025</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM MOTTLED</t>
+          <t>CALATHEA ROSEOPICTA SURPRISE STAR</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -37177,59 +37177,59 @@
         <v>30</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J70" s="4" t="n">
-        <v>8.99</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="K70" s="4" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="L70" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N70" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R70" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T70" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T70" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W70" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -37857,17 +37857,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>1501070002</t>
+          <t>1107050001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>CEREUS PERUVIANUS</t>
+          <t>FICUS BELICE</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -37877,43 +37877,43 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>17.94</v>
+        <v>19.9</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>10.31</v>
+        <v>12.09</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N78" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N78" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O78" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0</v>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -37948,17 +37948,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>1107050001</t>
+          <t>1501070002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FICUS BELICE</t>
+          <t>CEREUS PERUVIANUS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -37968,43 +37968,43 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>19.9</v>
+        <v>17.94</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>12.09</v>
+        <v>10.31</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N79" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -38403,17 +38403,17 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>1501060007</t>
+          <t>1106130011</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>PLANTA CRASA + CERAMICA</t>
+          <t>PLANTA VERDE MIX + CERAMICA</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -38423,12 +38423,12 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -38438,13 +38438,13 @@
         <v>2</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>15.9</v>
+        <v>17.9</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>8.75</v>
+        <v>10.57</v>
       </c>
       <c r="K84" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0</v>
@@ -38456,16 +38456,16 @@
         <v>1</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q84" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>0</v>
+        <v>56.67</v>
       </c>
       <c r="S84" s="5" t="n">
         <v>0</v>
@@ -38477,34 +38477,34 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 276 días.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W84" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>1106130011</t>
+          <t>1501060007</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX + CERAMICA</t>
+          <t>PLANTA CRASA + CERAMICA</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -38514,12 +38514,12 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -38529,13 +38529,13 @@
         <v>2</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>17.9</v>
+        <v>15.9</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>10.57</v>
+        <v>8.75</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L85" s="4" t="n">
         <v>0</v>
@@ -38547,16 +38547,16 @@
         <v>1</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>56.67</v>
+        <v>0</v>
       </c>
       <c r="S85" s="5" t="n">
         <v>0</v>
@@ -38568,17 +38568,17 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 276 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -41315,17 +41315,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1102010023</t>
+          <t>1501060004</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA NATASJA</t>
+          <t>ANACAMPSEROS</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A10</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -41335,12 +41335,12 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
@@ -41350,13 +41350,13 @@
         <v>2</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>9.58</v>
+        <v>9.98</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
@@ -41368,55 +41368,55 @@
         <v>1</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T116" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>1501060004</t>
+          <t>1102010023</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>ANACAMPSEROS</t>
+          <t>FICUS BENJAMINA NATASJA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>M12A10</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -41426,12 +41426,12 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
@@ -41441,13 +41441,13 @@
         <v>2</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>9.98</v>
+        <v>9.58</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>5.43</v>
+        <v>5.07</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
@@ -41459,38 +41459,38 @@
         <v>1</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T117" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T117" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -41952,32 +41952,24 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1104060001</t>
+          <t>1601020000</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS BOSTON</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>M15A30</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SUSTRATO TERRARIO 3L</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
@@ -41987,16 +41979,16 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>7.99</v>
+        <v>6.75</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="K123" s="4" t="n">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="L123" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M123" s="5" t="n">
         <v>0.2</v>
@@ -42005,62 +41997,70 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P123" s="4" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q123" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R123" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S123" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T123" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T123" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U123" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V123" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W123" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1601020000</t>
+          <t>1104060001</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO TERRARIO 3L</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr"/>
-      <c r="D124" s="3" t="inlineStr"/>
+          <t>NEPHROLEPIS BOSTON</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>M15A30</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
@@ -42070,16 +42070,16 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>6.75</v>
+        <v>7.99</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="L124" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M124" s="5" t="n">
         <v>0.2</v>
@@ -42088,38 +42088,38 @@
         <v>0.5</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T124" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T124" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -45383,17 +45383,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -45403,12 +45403,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -45427,7 +45427,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -45436,16 +45436,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -45457,12 +45457,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -45474,17 +45474,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -45518,7 +45518,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45527,16 +45527,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -45548,12 +45548,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -45565,17 +45565,17 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -45585,16 +45585,16 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -45609,7 +45609,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -45618,19 +45618,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45639,12 +45639,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45656,24 +45656,32 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr"/>
-      <c r="D5" s="3" t="inlineStr"/>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>M9A25</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -45692,7 +45700,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -45701,7 +45709,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -45722,7 +45730,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -45739,17 +45747,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45759,16 +45767,16 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -45783,7 +45791,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -45792,7 +45800,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -45801,7 +45809,7 @@
         <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>30</v>
@@ -45813,7 +45821,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -45830,28 +45838,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+          <t>BOUQUET 1 ROSA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -45884,7 +45892,7 @@
         <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>306.67</v>
+        <v>1314.29</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -45896,7 +45904,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -45913,17 +45921,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>ALOCASIA BAGINDA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>C20A110</t>
+          <t>M14A35</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45957,7 +45965,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45966,19 +45974,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>60</v>
+        <v>143.33</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -45987,12 +45995,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -46004,32 +46012,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>C32A200</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -46048,7 +46048,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -46057,19 +46057,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T9" s="6" t="inlineStr">
         <is>
@@ -46078,12 +46078,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -46095,17 +46095,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>DRACAENA MARGINATA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>C24A100</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46139,7 +46139,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46148,19 +46148,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>106.67</v>
+        <v>93.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -46169,12 +46169,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46186,36 +46186,28 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>M13A50</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -46230,7 +46222,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46239,16 +46231,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>213.33</v>
+        <v>306.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -46260,12 +46252,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -46277,36 +46269,28 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>0</v>
@@ -46336,13 +46320,13 @@
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>113.33</v>
+        <v>96.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46351,12 +46335,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46368,17 +46352,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>CHAMAEDOREA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>C20A110</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -46388,16 +46372,16 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>0</v>
@@ -46412,7 +46396,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -46421,19 +46405,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
@@ -46442,12 +46426,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -46459,32 +46443,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>C23A50</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -46503,7 +46479,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46512,19 +46488,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>306.67</v>
+        <v>110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
@@ -46533,12 +46509,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46550,17 +46526,17 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>C22A150</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -46570,12 +46546,12 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -46594,7 +46570,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46603,19 +46579,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>93.33</v>
+        <v>196.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
@@ -46624,12 +46600,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46641,17 +46617,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -46685,7 +46661,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46694,7 +46670,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
@@ -46715,7 +46691,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -46732,24 +46708,32 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>M12A30</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -46768,7 +46752,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46777,7 +46761,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
@@ -46798,7 +46782,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -46815,17 +46799,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46835,16 +46819,16 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
@@ -46859,7 +46843,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46868,19 +46852,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>143.33</v>
+        <v>613.33</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -46889,12 +46873,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46906,17 +46890,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46926,16 +46910,16 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>0</v>
@@ -46950,7 +46934,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46959,19 +46943,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -46980,12 +46964,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46997,17 +46981,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>LILIUM ROSA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M13A40</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -47041,7 +47025,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47050,16 +47034,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>286.67</v>
+        <v>613.33</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -47071,12 +47055,12 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
@@ -47088,17 +47072,17 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -47132,7 +47116,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47141,16 +47125,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -47162,12 +47146,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -47179,17 +47163,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -47223,7 +47207,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -47232,19 +47216,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
@@ -47253,12 +47237,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47270,24 +47254,32 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
+          <t>ALOCASIA BLACK JACK</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>M12A40</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -47306,7 +47298,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -47315,19 +47307,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>96.67</v>
+        <v>306.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
@@ -47336,12 +47328,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -47353,17 +47345,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>FICUS ELASTICA MEZCLA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -47397,7 +47389,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47406,7 +47398,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
@@ -47427,7 +47419,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -47444,17 +47436,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -47464,16 +47456,16 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>0</v>
@@ -47506,7 +47498,7 @@
         <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>30</v>
@@ -47518,7 +47510,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -47535,17 +47527,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>M13A50</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -47555,16 +47547,16 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -47579,7 +47571,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47588,16 +47580,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>306.67</v>
+        <v>213.33</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -47609,12 +47601,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47626,17 +47618,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -47646,16 +47638,16 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>0</v>
@@ -47670,7 +47662,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47679,7 +47671,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -47688,7 +47680,7 @@
         <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -47700,7 +47692,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -47717,17 +47709,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -47737,16 +47729,16 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -47761,7 +47753,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47770,19 +47762,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>176.67</v>
+        <v>113.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -47791,12 +47783,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -47808,17 +47800,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47852,7 +47844,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47861,16 +47853,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S29" s="5" t="n">
         <v>30</v>
@@ -47882,12 +47874,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47899,32 +47891,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>M65A10</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47943,7 +47927,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47952,16 +47936,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -47973,12 +47957,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47990,17 +47974,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>C17A80</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -48010,16 +47994,16 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -48034,7 +48018,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48043,19 +48027,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>113.33</v>
+        <v>0</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -48064,12 +48048,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -48081,17 +48065,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48125,7 +48109,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -48134,7 +48118,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
@@ -48155,7 +48139,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -48172,17 +48156,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -48192,16 +48176,16 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>0</v>
@@ -48216,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48225,19 +48209,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>613.33</v>
+        <v>106.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -48246,12 +48230,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -48263,17 +48247,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -48307,7 +48291,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48316,19 +48300,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>400</v>
+        <v>113.33</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
@@ -48337,12 +48321,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -48354,17 +48338,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48374,12 +48358,12 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -48398,7 +48382,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -48407,7 +48391,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
@@ -48445,17 +48429,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -48489,7 +48473,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -48498,19 +48482,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>93.33</v>
+        <v>196.67</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T36" s="6" t="inlineStr">
         <is>
@@ -48519,12 +48503,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -48536,17 +48520,17 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>C25A110</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -48556,12 +48540,12 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -48580,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48589,16 +48573,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -48610,12 +48594,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -48627,17 +48611,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -48671,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48680,19 +48664,19 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T38" s="6" t="inlineStr">
         <is>
@@ -48701,12 +48685,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -48718,17 +48702,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
+          <t>MAMMILLARIA CATERPINCY</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -48738,16 +48722,16 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>0</v>
@@ -48762,7 +48746,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48771,16 +48755,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -48792,12 +48776,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -48900,17 +48884,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>CAMPANULA + CUBRE ZINK</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48944,7 +48928,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48953,16 +48937,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>613.33</v>
+        <v>286.67</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -48974,12 +48958,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48991,24 +48975,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>FICUS GINSENG + CERAMICA</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>M15A40</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -49027,7 +49019,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -49036,19 +49028,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
@@ -49057,12 +49049,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -49074,17 +49066,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -49118,7 +49110,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -49127,7 +49119,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
@@ -49148,7 +49140,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -49248,17 +49240,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
+          <t>STEPHANOTIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -49268,16 +49260,16 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -49292,7 +49284,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -49301,19 +49293,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>196.67</v>
+        <v>120</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -49322,12 +49314,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -49339,16 +49331,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr"/>
-      <c r="D46" s="3" t="inlineStr"/>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -49375,7 +49375,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -49384,16 +49384,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -49405,12 +49405,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -49422,17 +49422,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>M15A40</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -49442,16 +49442,16 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -49466,7 +49466,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49475,19 +49475,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>56.67</v>
+        <v>613.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -49496,12 +49496,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -49513,28 +49513,28 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>0</v>
@@ -49549,7 +49549,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -49558,7 +49558,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
@@ -49567,7 +49567,7 @@
         <v>92</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S48" s="5" t="n">
         <v>30</v>
@@ -49579,7 +49579,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -49596,12 +49596,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -49632,7 +49632,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49641,19 +49641,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>110</v>
+        <v>306.67</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T49" s="6" t="inlineStr">
         <is>
@@ -49662,12 +49662,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -49679,17 +49679,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -49699,16 +49699,16 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>0</v>
@@ -49723,7 +49723,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49732,7 +49732,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
@@ -49741,7 +49741,7 @@
         <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>30</v>
@@ -49753,7 +49753,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -49770,36 +49770,28 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>M13A40</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RAMO BOUQUET 5 ROSAS</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>0</v>
@@ -49814,7 +49806,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49823,7 +49815,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
@@ -49832,7 +49824,7 @@
         <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>613.33</v>
+        <v>1314.29</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>30</v>
@@ -49844,7 +49836,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -49861,17 +49853,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49905,7 +49897,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49914,19 +49906,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49935,12 +49927,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49952,17 +49944,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49972,16 +49964,16 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>0</v>
@@ -49996,7 +49988,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -50005,19 +49997,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>93.33</v>
+        <v>613.33</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T53" s="6" t="inlineStr">
         <is>
@@ -50026,12 +50018,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -50043,28 +50035,28 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
+          <t>TERRARIO VIVANT IZUMI</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H54" s="4" t="n">
         <v>0</v>
@@ -50079,7 +50071,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50088,7 +50080,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
@@ -50097,7 +50089,7 @@
         <v>92</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>30</v>
@@ -50109,7 +50101,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -50126,17 +50118,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -50170,7 +50162,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50179,16 +50171,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -50200,12 +50192,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -50217,24 +50209,32 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr"/>
-      <c r="D56" s="3" t="inlineStr"/>
+          <t>MANGAVE</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>C17A30</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -50253,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50262,19 +50262,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50283,12 +50283,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50300,17 +50300,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>BRASSIA 1SP</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -50320,16 +50320,16 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
@@ -50344,7 +50344,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50353,16 +50353,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>30</v>
@@ -50374,12 +50374,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -50391,16 +50391,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>C19A20</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -50427,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50436,7 +50444,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
@@ -50457,7 +50465,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -50474,17 +50482,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>VRIESEA MADONNA</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -50494,16 +50502,16 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
@@ -50518,7 +50526,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50527,16 +50535,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S59" s="5" t="n">
         <v>30</v>
@@ -50548,12 +50556,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50565,17 +50573,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>OPUNTIA RETICULATA COBRA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -50585,12 +50593,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -50609,7 +50617,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50618,16 +50626,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S60" s="5" t="n">
         <v>30</v>
@@ -50639,12 +50647,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -50656,17 +50664,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50676,12 +50684,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -50700,7 +50708,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -50709,19 +50717,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>0</v>
+        <v>176.67</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -50730,12 +50738,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50747,17 +50755,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50767,16 +50775,16 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H62" s="4" t="n">
         <v>0</v>
@@ -50791,7 +50799,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50800,19 +50808,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -50821,12 +50829,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50838,17 +50846,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50858,12 +50866,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50897,13 +50905,13 @@
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>176.67</v>
+        <v>60</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T63" s="6" t="inlineStr">
         <is>
@@ -50912,12 +50920,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50929,17 +50937,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50949,16 +50957,16 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H64" s="4" t="n">
         <v>0</v>
@@ -50973,7 +50981,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50982,19 +50990,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>120</v>
+        <v>306.67</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T64" s="6" t="inlineStr">
         <is>
@@ -51003,12 +51011,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -51020,36 +51028,28 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>M12A55</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
@@ -51064,7 +51064,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51073,7 +51073,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -51082,7 +51082,7 @@
         <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>30</v>
@@ -51094,7 +51094,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -51111,24 +51111,32 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr"/>
-      <c r="D66" s="3" t="inlineStr"/>
+          <t>CHLOROPHYTUM</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>M15COLG</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -51147,7 +51155,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -51156,19 +51164,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -51177,12 +51185,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -51194,32 +51202,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>M85A20</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr"/>
+      <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -51238,7 +51238,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -51247,7 +51247,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
@@ -51268,7 +51268,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>COLGANTE TILLANDSIA</t>
+          <t>ESPECIAL INVERNADERO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -3253,10 +3253,10 @@
         <v>2</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>37</v>
+        <v>13.98</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>-102.32</v>
+        <v>-121.35</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>ESPECIAL INVERNADERO</t>
+          <t>COLGANTE TILLANDSIA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -3336,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>13.98</v>
+        <v>37</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>-121.35</v>
+        <v>-102.32</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>-2</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -14272,17 +14272,17 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>1102010011</t>
+          <t>1303050001</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA ABIDJAN</t>
+          <t>VRIESEA ERA</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M55A15</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -14292,88 +14292,88 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I153" s="4" t="n">
-        <v>97.95999999999999</v>
+        <v>84</v>
       </c>
       <c r="J153" s="4" t="n">
-        <v>56.89</v>
+        <v>44.2</v>
       </c>
       <c r="K153" s="4" t="n">
-        <v>100</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="L153" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M153" s="5" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N153" s="5" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O153" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P153" s="4" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="Q153" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R153" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S153" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T153" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T153" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U153" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V153" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W153" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>1303050001</t>
+          <t>1102010011</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA ERA</t>
+          <t>FICUS ELASTICA ABIDJAN</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>M55A15</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -14383,71 +14383,71 @@
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I154" s="4" t="n">
-        <v>84</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="J154" s="4" t="n">
-        <v>44.2</v>
+        <v>56.89</v>
       </c>
       <c r="K154" s="4" t="n">
-        <v>69.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="L154" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M154" s="5" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="N154" s="5" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P154" s="4" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="Q154" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R154" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S154" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T154" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T154" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U154" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V154" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W154" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
@@ -16876,17 +16876,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1306150001</t>
+          <t>1105050024</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>GERBERA</t>
+          <t>PHILODENDRON RING OF FIRE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -16896,49 +16896,49 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>64.87</v>
+        <v>39.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>32.45</v>
+        <v>9.81</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>81.25</v>
+        <v>28.57</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -16950,34 +16950,34 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1105050024</t>
+          <t>1306150001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON RING OF FIRE</t>
+          <t>GERBERA</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -16987,49 +16987,49 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>39.96</v>
+        <v>64.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.81</v>
+        <v>32.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>28.57</v>
+        <v>81.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>30</v>
@@ -17041,17 +17041,17 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17513,17 +17513,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M14A55</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -17533,88 +17533,88 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>68.23999999999999</v>
+        <v>80.84</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>37</v>
+        <v>48.45</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T10" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M14A55</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -17624,71 +17624,71 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>80.84</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>48.45</v>
+        <v>37</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T11" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27665,12 +27665,12 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>1602010062</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TAZA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
@@ -27692,16 +27692,16 @@
         <v>1</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>39.95</v>
+        <v>34.95</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>22.32</v>
+        <v>17.77</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L122" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="5" t="n">
         <v>0.2</v>
@@ -27710,50 +27710,50 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q122" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S122" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T122" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T122" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U122" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V122" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W122" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010087</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TETERA PEQUEÑA</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
@@ -27775,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>34.95</v>
+        <v>34.49</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>17.77</v>
+        <v>17.35</v>
       </c>
       <c r="K123" s="4" t="n">
         <v>50</v>
@@ -27831,12 +27831,12 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1602010087</t>
+          <t>1602010062</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TETERA PEQUEÑA</t>
+          <t>COMPOSICION TAZA PEQUEÑA</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
@@ -27858,16 +27858,16 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>34.49</v>
+        <v>39.95</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>17.35</v>
+        <v>22.32</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L124" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" s="5" t="n">
         <v>0.2</v>
@@ -27876,38 +27876,38 @@
         <v>0.5</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T124" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T124" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -31428,17 +31428,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -31448,12 +31448,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -31463,10 +31463,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.98</v>
+        <v>27</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>7.46</v>
+        <v>13.85</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>0</v>
@@ -31484,7 +31484,7 @@
         <v>-2</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
@@ -31519,17 +31519,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -31539,12 +31539,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -31554,10 +31554,10 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27</v>
+        <v>19.98</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>13.85</v>
+        <v>7.46</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -31575,7 +31575,7 @@
         <v>-2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0</v>
@@ -35697,17 +35697,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1105070005</t>
+          <t>1108140019</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM PINK</t>
+          <t>SENECIO MIX</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>C20COLG</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -35732,13 +35732,13 @@
         <v>2</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>18.98</v>
+        <v>28.98</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>10.01</v>
+        <v>19.11</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -35750,55 +35750,55 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T54" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1108140019</t>
+          <t>1105070005</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SENECIO MIX</t>
+          <t>SYNGONIUM PINK</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>C20COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -35823,13 +35823,13 @@
         <v>2</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>28.98</v>
+        <v>18.98</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>19.11</v>
+        <v>10.01</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -35841,38 +35841,38 @@
         <v>1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T55" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T55" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
@@ -36607,45 +36607,37 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1401060002</t>
+          <t>1602010084</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MUSGO NATURAL</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>1500G</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MR BART</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>16.99</v>
+        <v>17.55</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>8.73</v>
+        <v>9.23</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -36654,16 +36646,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N64" s="5" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -36681,7 +36673,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -36698,37 +36690,45 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1602010084</t>
+          <t>1401060002</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>MR BART</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
+          <t>MUSGO NATURAL</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>1500G</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>17.55</v>
+        <v>16.99</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>9.23</v>
+        <v>8.73</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -36737,16 +36737,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -38221,17 +38221,17 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>1103070001</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>ZAMIOCULCAS</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>M14A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -38253,76 +38253,76 @@
         <v>30</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>13.65</v>
+        <v>15.8</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>6.69</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>0</v>
+        <v>26.67</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T82" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1103070001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>ZAMIOCULCAS</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M14A30</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
@@ -38344,59 +38344,59 @@
         <v>30</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>15.8</v>
+        <v>13.65</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>6.69</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>26.67</v>
+        <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N83" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T83" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T83" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.47€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W83" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -41315,17 +41315,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1501060004</t>
+          <t>1102010023</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>ANACAMPSEROS</t>
+          <t>FICUS BENJAMINA NATASJA</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>M12A10</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -41335,12 +41335,12 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
@@ -41350,13 +41350,13 @@
         <v>2</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>9.98</v>
+        <v>9.58</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>5.43</v>
+        <v>5.07</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
@@ -41368,55 +41368,55 @@
         <v>1</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T116" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T116" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>1102010023</t>
+          <t>1501060004</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA NATASJA</t>
+          <t>ANACAMPSEROS</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A10</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -41426,12 +41426,12 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
@@ -41441,13 +41441,13 @@
         <v>2</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>9.58</v>
+        <v>9.98</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
@@ -41459,38 +41459,38 @@
         <v>1</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T117" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T117" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -41588,17 +41588,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1502010004</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>ALOE DANNYZ</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -41608,25 +41608,25 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H119" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>9.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>5.51</v>
+        <v>5.24</v>
       </c>
       <c r="K119" s="4" t="n">
         <v>0</v>
@@ -41635,16 +41635,16 @@
         <v>0</v>
       </c>
       <c r="M119" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N119" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O119" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q119" s="4" t="n">
         <v>0</v>
@@ -41679,17 +41679,17 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>1502010004</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>ALOE DANNYZ</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -41699,25 +41699,25 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H120" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>5.24</v>
+        <v>5.51</v>
       </c>
       <c r="K120" s="4" t="n">
         <v>0</v>
@@ -41726,16 +41726,16 @@
         <v>0</v>
       </c>
       <c r="M120" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N120" s="5" t="n">
         <v>0.2</v>
-      </c>
-      <c r="N120" s="5" t="n">
-        <v>0.5</v>
       </c>
       <c r="O120" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q120" s="4" t="n">
         <v>0</v>
@@ -42763,12 +42763,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1501060008</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CRASSULA TECTA</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -42819,7 +42819,7 @@
         <v>6</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="Q132" s="4" t="n">
         <v>59</v>
@@ -42854,12 +42854,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>1501060008</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>CRASSULA TECTA</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -42910,7 +42910,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="4" t="n">
         <v>59</v>
@@ -45383,32 +45383,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>M13A25</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -45457,7 +45449,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -45474,17 +45466,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>STEPHANOTIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -45518,7 +45510,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45527,19 +45519,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T3" s="6" t="inlineStr">
         <is>
@@ -45548,12 +45540,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -45565,24 +45557,16 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -45624,13 +45608,13 @@
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>306.67</v>
+        <v>110</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45639,12 +45623,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45656,17 +45640,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -45700,7 +45684,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -45709,7 +45693,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -45730,7 +45714,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -45747,17 +45731,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45767,16 +45751,16 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -45791,7 +45775,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -45800,7 +45784,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -45809,7 +45793,7 @@
         <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S6" s="5" t="n">
         <v>30</v>
@@ -45821,7 +45805,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -45838,28 +45822,28 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -45874,7 +45858,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45883,7 +45867,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
@@ -45892,7 +45876,7 @@
         <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -45904,7 +45888,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -45921,17 +45905,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45941,12 +45925,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45965,7 +45949,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45974,19 +45958,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>143.33</v>
+        <v>176.67</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -45995,12 +45979,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -46012,28 +45996,36 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>LILIUM ROSA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>M13A40</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0</v>
@@ -46048,7 +46040,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -46057,7 +46049,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -46066,7 +46058,7 @@
         <v>92</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -46078,7 +46070,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -46095,17 +46087,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>VRIESEA MADONNA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46115,16 +46107,16 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -46139,7 +46131,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46148,19 +46140,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>93.33</v>
+        <v>613.33</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -46169,12 +46161,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46186,24 +46178,32 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>MAMMILLARIA CATERPINCY</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -46222,7 +46222,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46231,16 +46231,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -46252,12 +46252,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -46269,24 +46269,32 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr"/>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -46305,7 +46313,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -46314,19 +46322,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>96.67</v>
+        <v>196.67</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46335,12 +46343,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46443,28 +46451,36 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr"/>
+          <t>CAMPANULA + CUBRE ZINK</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>M55A10</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -46479,7 +46495,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46488,19 +46504,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>110</v>
+        <v>286.67</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
@@ -46509,12 +46525,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46526,32 +46542,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>M65A10</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -46570,7 +46578,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46579,19 +46587,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>196.67</v>
+        <v>96.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
@@ -46600,12 +46608,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46617,17 +46625,17 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -46637,16 +46645,16 @@
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
@@ -46661,7 +46669,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46670,19 +46678,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
@@ -46691,12 +46699,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -46708,17 +46716,17 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -46728,16 +46736,16 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
@@ -46752,7 +46760,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46761,16 +46769,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>306.67</v>
+        <v>400</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>30</v>
@@ -46782,12 +46790,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -46799,17 +46807,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46819,16 +46827,16 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>0</v>
@@ -46843,7 +46851,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46852,19 +46860,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -46873,12 +46881,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46890,36 +46898,28 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>C17A80</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>0</v>
@@ -46934,7 +46934,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46943,19 +46943,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T19" s="6" t="inlineStr">
         <is>
@@ -46964,12 +46964,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46981,17 +46981,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
+          <t>BRASSIA 1SP</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M13A40</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -47001,12 +47001,12 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -47025,7 +47025,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47034,7 +47034,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -47055,7 +47055,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -47072,36 +47072,28 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>M12A25</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RAMO BOUQUET 5 ROSAS</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>0</v>
@@ -47116,7 +47108,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47125,16 +47117,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>400</v>
+        <v>1314.29</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -47146,12 +47138,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -47163,17 +47155,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>C22A150</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -47183,12 +47175,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -47207,7 +47199,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -47216,19 +47208,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>93.33</v>
+        <v>176.67</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T22" s="6" t="inlineStr">
         <is>
@@ -47237,12 +47229,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47254,17 +47246,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>DRACAENA MARGINATA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>C24A100</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -47298,7 +47290,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -47307,19 +47299,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
@@ -47328,12 +47320,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -47345,17 +47337,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>MANGAVE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -47365,12 +47357,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -47389,7 +47381,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47398,19 +47390,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -47419,12 +47411,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -47436,17 +47428,17 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -47456,16 +47448,16 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>0</v>
@@ -47480,7 +47472,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -47489,19 +47481,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>613.33</v>
+        <v>93.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -47510,12 +47502,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -47527,17 +47519,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -47571,7 +47563,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47580,16 +47572,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>213.33</v>
+        <v>400</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -47606,7 +47598,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47618,17 +47610,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -47638,16 +47630,16 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>0</v>
@@ -47662,7 +47654,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47671,7 +47663,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -47680,7 +47672,7 @@
         <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -47692,7 +47684,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -47709,17 +47701,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -47729,16 +47721,16 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -47753,7 +47745,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47762,19 +47754,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -47783,12 +47775,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -47800,17 +47792,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47820,12 +47812,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -47844,7 +47836,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47853,7 +47845,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
@@ -47874,7 +47866,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -47891,24 +47883,32 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr"/>
+          <t>HAWORTHIA FASCIATA</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>M85A20</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47927,7 +47927,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47936,7 +47936,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
@@ -47957,7 +47957,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -47974,17 +47974,17 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -47994,16 +47994,16 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -48018,7 +48018,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48027,19 +48027,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T31" s="6" t="inlineStr">
         <is>
@@ -48048,12 +48048,12 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
@@ -48065,17 +48065,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>C19A20</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48085,12 +48085,12 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -48109,7 +48109,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -48118,7 +48118,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
@@ -48139,7 +48139,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -48156,17 +48156,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -48176,16 +48176,16 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>0</v>
@@ -48200,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48209,19 +48209,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>106.67</v>
+        <v>613.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -48230,12 +48230,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -48247,36 +48247,28 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr"/>
+      <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -48291,7 +48283,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48300,19 +48292,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T34" s="6" t="inlineStr">
         <is>
@@ -48321,12 +48313,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -48338,17 +48330,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48382,7 +48374,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -48391,19 +48383,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>113.33</v>
+        <v>613.33</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T35" s="6" t="inlineStr">
         <is>
@@ -48412,12 +48404,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -48429,12 +48421,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
+          <t>OPUNTIA RETICULATA COBRA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -48520,24 +48512,16 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -48564,7 +48548,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48573,16 +48557,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S37" s="5" t="n">
         <v>30</v>
@@ -48594,12 +48578,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -48611,17 +48595,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>C23A50</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -48631,12 +48615,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -48655,7 +48639,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48664,16 +48648,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -48685,12 +48669,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -48702,17 +48686,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -48722,12 +48706,12 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -48746,7 +48730,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48755,16 +48739,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S39" s="5" t="n">
         <v>30</v>
@@ -48776,12 +48760,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -48793,17 +48777,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>CHLOROPHYTUM</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48813,12 +48797,12 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -48837,7 +48821,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48846,16 +48830,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>0</v>
@@ -48872,7 +48856,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48884,17 +48868,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48904,16 +48888,16 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -48928,7 +48912,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48937,16 +48921,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>286.67</v>
+        <v>306.67</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -48958,12 +48942,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48975,17 +48959,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M15A40</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48995,12 +48979,12 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -49034,13 +49018,13 @@
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>56.67</v>
+        <v>106.67</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
@@ -49049,12 +49033,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -49066,17 +49050,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>C25A110</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -49086,12 +49070,12 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -49110,7 +49094,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -49119,16 +49103,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S43" s="5" t="n">
         <v>30</v>
@@ -49140,12 +49124,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -49157,12 +49141,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+          <t>TERRARIO VIVANT IZUMI</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -49193,7 +49177,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -49202,7 +49186,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
@@ -49223,7 +49207,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -49240,36 +49224,28 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>C20A90</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -49284,7 +49260,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -49293,19 +49269,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>120</v>
+        <v>1314.29</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -49314,12 +49290,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -49331,17 +49307,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -49351,12 +49327,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -49375,7 +49351,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -49384,16 +49360,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="5" t="n">
         <v>30</v>
@@ -49405,12 +49381,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -49422,17 +49398,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -49442,16 +49418,16 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -49466,7 +49442,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49475,7 +49451,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
@@ -49484,7 +49460,7 @@
         <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S47" s="5" t="n">
         <v>30</v>
@@ -49496,7 +49472,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -49596,24 +49572,32 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
+          <t>FICUS ELASTICA MEZCLA</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>M6A15</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -49632,7 +49616,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49641,7 +49625,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -49662,7 +49646,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -49679,17 +49663,17 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -49699,16 +49683,16 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H50" s="4" t="n">
         <v>0</v>
@@ -49723,7 +49707,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49732,16 +49716,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>30</v>
@@ -49753,12 +49737,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -49770,28 +49754,36 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
+          <t>SARRACENIA</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>M6A20</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>0</v>
@@ -49806,7 +49798,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49815,7 +49807,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
@@ -49824,7 +49816,7 @@
         <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>1314.29</v>
+        <v>613.33</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>30</v>
@@ -49836,7 +49828,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -49853,17 +49845,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>FICUS GINSENG + CERAMICA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M15A40</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49873,12 +49865,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49897,7 +49889,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49906,19 +49898,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>196.67</v>
+        <v>56.67</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49927,12 +49919,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49944,36 +49936,28 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H53" s="4" t="n">
         <v>0</v>
@@ -49988,7 +49972,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49997,7 +49981,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
@@ -50006,7 +49990,7 @@
         <v>92</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S53" s="5" t="n">
         <v>30</v>
@@ -50018,7 +50002,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -50035,24 +50019,32 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr"/>
-      <c r="D54" s="3" t="inlineStr"/>
+          <t>ALOE VERA</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>C25A40</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -50071,7 +50063,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50080,19 +50072,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
@@ -50101,12 +50093,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -50118,17 +50110,17 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -50138,16 +50130,16 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H55" s="4" t="n">
         <v>0</v>
@@ -50162,7 +50154,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50171,19 +50163,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
@@ -50192,12 +50184,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -50209,17 +50201,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -50229,12 +50221,12 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -50253,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50262,19 +50254,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>93.33</v>
+        <v>306.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50283,12 +50275,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50300,17 +50292,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -50344,7 +50336,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50353,19 +50345,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
@@ -50374,12 +50366,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -50391,17 +50383,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -50411,16 +50403,16 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
@@ -50435,7 +50427,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50444,7 +50436,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
@@ -50453,7 +50445,7 @@
         <v>92</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S58" s="5" t="n">
         <v>30</v>
@@ -50465,7 +50457,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -50482,17 +50474,17 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -50526,7 +50518,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50535,19 +50527,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T59" s="6" t="inlineStr">
         <is>
@@ -50556,12 +50548,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50573,17 +50565,17 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -50593,12 +50585,12 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -50617,7 +50609,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50626,19 +50618,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>196.67</v>
+        <v>60</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T60" s="6" t="inlineStr">
         <is>
@@ -50647,12 +50639,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -50664,17 +50656,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
+          <t>ALOCASIA BAGINDA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M14A35</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50684,12 +50676,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -50708,7 +50700,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -50717,19 +50709,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>176.67</v>
+        <v>143.33</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -50738,12 +50730,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50755,17 +50747,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50775,16 +50767,16 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H62" s="4" t="n">
         <v>0</v>
@@ -50799,7 +50791,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50808,19 +50800,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>0</v>
+        <v>113.33</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -50829,12 +50821,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50846,32 +50838,24 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>C32A200</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50890,7 +50874,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50899,19 +50883,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R63" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T63" s="6" t="inlineStr">
         <is>
@@ -50920,12 +50904,12 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="4" t="inlineStr">
@@ -50947,7 +50931,7 @@
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50981,7 +50965,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50990,7 +50974,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
@@ -51011,7 +50995,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -51028,28 +51012,36 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr"/>
-      <c r="D65" s="3" t="inlineStr"/>
+          <t>SARRACENIA</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>M9A30</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
@@ -51064,7 +51056,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51073,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -51082,7 +51074,7 @@
         <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>30</v>
@@ -51094,7 +51086,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -51111,17 +51103,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -51155,7 +51147,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -51164,19 +51156,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -51185,12 +51177,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -51202,28 +51194,36 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr"/>
-      <c r="D67" s="3" t="inlineStr"/>
+          <t>CURCUMA MIX</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>M13A50</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -51238,7 +51238,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -51247,16 +51247,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>306.67</v>
+        <v>213.33</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>30</v>
@@ -51268,12 +51268,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ESPECIAL INVERNADERO</t>
+          <t>COLGANTE TILLANDSIA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -3253,10 +3253,10 @@
         <v>2</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>13.98</v>
+        <v>37</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>-121.35</v>
+        <v>-102.32</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>-2</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COLGANTE TILLANDSIA</t>
+          <t>ESPECIAL INVERNADERO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -3336,10 +3336,10 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>37</v>
+        <v>13.98</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>-102.32</v>
+        <v>-121.35</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>-2</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
@@ -3938,17 +3938,17 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1201090003</t>
+          <t>1201090031</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>PHAL 1 TAK ROYAL BLUE</t>
+          <t>PHALAENOPSIS 1SP ROYAL PURPLE</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>43</v>
@@ -4029,17 +4029,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1201090031</t>
+          <t>1201090003</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>PHALAENOPSIS 1SP ROYAL PURPLE</t>
+          <t>PHAL 1 TAK ROYAL BLUE</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -4085,7 +4085,7 @@
         <v>2</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>43</v>
@@ -10640,17 +10640,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>1201090025</t>
+          <t>1503050001</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>PHALAENOPSIS MINIFLORA 1SP</t>
+          <t>CACTUS MIX</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>M6A25</t>
+          <t>C20A40</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -10660,28 +10660,28 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I113" s="4" t="n">
-        <v>103.92</v>
+        <v>116</v>
       </c>
       <c r="J113" s="4" t="n">
-        <v>49.67</v>
+        <v>60.65</v>
       </c>
       <c r="K113" s="4" t="n">
-        <v>33.33</v>
+        <v>200</v>
       </c>
       <c r="L113" s="4" t="n">
         <v>0</v>
@@ -10693,55 +10693,55 @@
         <v>2</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="P113" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T113" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T113" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>1503050001</t>
+          <t>1201090025</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX</t>
+          <t>PHALAENOPSIS MINIFLORA 1SP</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
         <is>
-          <t>C20A40</t>
+          <t>M6A25</t>
         </is>
       </c>
       <c r="D114" s="3" t="inlineStr">
@@ -10751,28 +10751,28 @@
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F114" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G114" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I114" s="4" t="n">
-        <v>116</v>
+        <v>103.92</v>
       </c>
       <c r="J114" s="4" t="n">
-        <v>60.65</v>
+        <v>49.67</v>
       </c>
       <c r="K114" s="4" t="n">
-        <v>200</v>
+        <v>33.33</v>
       </c>
       <c r="L114" s="4" t="n">
         <v>0</v>
@@ -10784,38 +10784,38 @@
         <v>2</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q114" s="4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R114" s="4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S114" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T114" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T114" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U114" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V114" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W114" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -13999,17 +13999,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1106130001</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ASPIDISTRA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C17A110</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14019,49 +14019,49 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H150" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="4" t="n">
+        <v>83.97</v>
+      </c>
+      <c r="J150" s="4" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="K150" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L150" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I150" s="4" t="n">
-        <v>79.65000000000001</v>
-      </c>
-      <c r="J150" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="K150" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L150" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M150" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N150" s="5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O150" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P150" s="4" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q150" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R150" s="4" t="n">
-        <v>213.33</v>
+        <v>196.67</v>
       </c>
       <c r="S150" s="5" t="n">
         <v>30</v>
@@ -14073,34 +14073,34 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W150" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>1106130001</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>ASPIDISTRA</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>C17A110</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -14110,49 +14110,49 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H151" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I151" s="4" t="n">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="J151" s="4" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="K151" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L151" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N151" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O151" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I151" s="4" t="n">
-        <v>83.97</v>
-      </c>
-      <c r="J151" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="K151" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L151" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M151" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N151" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O151" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="P151" s="4" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q151" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R151" s="4" t="n">
-        <v>196.67</v>
+        <v>213.33</v>
       </c>
       <c r="S151" s="5" t="n">
         <v>30</v>
@@ -14164,17 +14164,17 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V151" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W151" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -14272,17 +14272,17 @@
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
         <is>
-          <t>1303050001</t>
+          <t>1102010011</t>
         </is>
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA ERA</t>
+          <t>FICUS ELASTICA ABIDJAN</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>M55A15</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -14292,88 +14292,88 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F153" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G153" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H153" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I153" s="4" t="n">
-        <v>84</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="J153" s="4" t="n">
-        <v>44.2</v>
+        <v>56.89</v>
       </c>
       <c r="K153" s="4" t="n">
-        <v>69.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="L153" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M153" s="5" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="N153" s="5" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="O153" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P153" s="4" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="Q153" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R153" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S153" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T153" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T153" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U153" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V153" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W153" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>1102010011</t>
+          <t>1303050001</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA ABIDJAN</t>
+          <t>VRIESEA ERA</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M55A15</t>
         </is>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -14383,71 +14383,71 @@
       </c>
       <c r="E154" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G154" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H154" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I154" s="4" t="n">
-        <v>97.95999999999999</v>
+        <v>84</v>
       </c>
       <c r="J154" s="4" t="n">
-        <v>56.89</v>
+        <v>44.2</v>
       </c>
       <c r="K154" s="4" t="n">
-        <v>100</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="L154" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M154" s="5" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N154" s="5" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P154" s="4" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="Q154" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R154" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S154" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T154" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T154" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U154" s="3" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V154" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W154" s="4" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -16876,17 +16876,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1105050024</t>
+          <t>1306150001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON RING OF FIRE</t>
+          <t>GERBERA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -16896,49 +16896,49 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>39.96</v>
+        <v>64.87</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.81</v>
+        <v>32.45</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>28.57</v>
+        <v>81.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -16950,34 +16950,34 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1306150001</t>
+          <t>1105050024</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>GERBERA</t>
+          <t>PHILODENDRON RING OF FIRE</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -16987,49 +16987,49 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>64.87</v>
+        <v>39.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>32.45</v>
+        <v>9.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>81.25</v>
+        <v>28.57</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S4" s="5" t="n">
         <v>30</v>
@@ -17041,17 +17041,17 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -17513,17 +17513,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M14A55</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -17533,88 +17533,88 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>80.84</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>48.45</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>44.44</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T10" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M14A55</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -17624,71 +17624,71 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>68.23999999999999</v>
+        <v>80.84</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>37</v>
+        <v>48.45</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T11" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -21501,69 +21501,61 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1305200001</t>
+          <t>1602010078</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>OXALIS MIX</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>M13A15</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>45.43</v>
+        <v>52.49</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>21.7</v>
+        <v>28.12</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>87.5</v>
+        <v>33.33</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>30</v>
@@ -21575,78 +21567,86 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1602010078</t>
+          <t>1305200001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT JUNGLE CLASSIC T-M</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr"/>
+          <t>OXALIS MIX</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>M13A15</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H55" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>45.43</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L55" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="I55" s="4" t="n">
-        <v>52.49</v>
-      </c>
-      <c r="J55" s="4" t="n">
-        <v>28.12</v>
-      </c>
-      <c r="K55" s="4" t="n">
-        <v>33.33</v>
-      </c>
-      <c r="L55" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M55" s="5" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -21658,17 +21658,17 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -24314,17 +24314,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1504010004</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>EPIPHYLLUM MIX</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -24334,88 +24334,88 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>79.56</v>
+        <v>43.47</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>55.29</v>
+        <v>22.48</v>
       </c>
       <c r="K85" s="4" t="n">
-        <v>63.16</v>
+        <v>60</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" s="5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N85" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O85" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N85" s="5" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O85" s="4" t="n">
-        <v>7</v>
-      </c>
       <c r="P85" s="4" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>140</v>
+        <v>306.67</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T85" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T85" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>1504010004</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>EPIPHYLLUM MIX</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -24425,71 +24425,71 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>43.47</v>
+        <v>79.56</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>22.48</v>
+        <v>55.29</v>
       </c>
       <c r="K86" s="4" t="n">
-        <v>60</v>
+        <v>63.16</v>
       </c>
       <c r="L86" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M86" s="5" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N86" s="5" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>306.67</v>
+        <v>140</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T86" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T86" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -26482,17 +26482,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1502080006</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>PORTULACARIA MIX</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -26502,71 +26502,71 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>38.96</v>
+        <v>43.89</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>20.24</v>
+        <v>24.72</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>37.5</v>
+        <v>36.67</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="O109" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="P109" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="P109" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="Q109" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>106.67</v>
+        <v>196.67</v>
       </c>
       <c r="S109" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T109" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T109" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26664,17 +26664,17 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>1502080006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>PORTULACARIA MIX</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -26684,71 +26684,71 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>43.89</v>
+        <v>38.96</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>24.72</v>
+        <v>20.24</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>36.67</v>
+        <v>37.5</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="P111" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q111" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>196.67</v>
+        <v>106.67</v>
       </c>
       <c r="S111" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T111" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T111" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -28725,17 +28725,17 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>1106060003</t>
+          <t>1501070006</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>CROTON MIX</t>
+          <t>CACTUS MIX CAJA 9UD</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>M15A20</t>
+          <t>M3I5A5</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -28745,88 +28745,88 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H134" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I134" s="4" t="n">
-        <v>37</v>
+        <v>35.98</v>
       </c>
       <c r="J134" s="4" t="n">
-        <v>20.28</v>
+        <v>19.35</v>
       </c>
       <c r="K134" s="4" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L134" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M134" s="5" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O134" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T134" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T134" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>1501070006</t>
+          <t>1106060003</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX CAJA 9UD</t>
+          <t>CROTON MIX</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M3I5A5</t>
+          <t>M15A20</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28836,71 +28836,71 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H135" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I135" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J135" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="K135" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L135" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N135" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I135" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="J135" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="K135" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L135" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M135" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N135" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O135" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T135" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T135" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -36607,37 +36607,45 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1602010084</t>
+          <t>1401060002</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>MR BART</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>MUSGO NATURAL</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>1500G</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>17.55</v>
+        <v>16.99</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>9.23</v>
+        <v>8.73</v>
       </c>
       <c r="K64" s="4" t="n">
         <v>0</v>
@@ -36646,16 +36654,16 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N64" s="5" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
@@ -36673,7 +36681,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -36690,45 +36698,37 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1401060002</t>
+          <t>1602010084</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>MUSGO NATURAL</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>1500G</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MR BART</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr"/>
+      <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>16.99</v>
+        <v>17.55</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>8.73</v>
+        <v>9.23</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
@@ -36737,16 +36737,16 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -37857,17 +37857,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>1107050001</t>
+          <t>1501070002</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>FICUS BELICE</t>
+          <t>CEREUS PERUVIANUS</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -37877,43 +37877,43 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>19.9</v>
+        <v>17.94</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>12.09</v>
+        <v>10.31</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N78" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0</v>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -37948,17 +37948,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>1501070002</t>
+          <t>1107050001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>CEREUS PERUVIANUS</t>
+          <t>FICUS BELICE</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -37968,43 +37968,43 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>17.94</v>
+        <v>19.9</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>10.31</v>
+        <v>12.09</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N79" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N79" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O79" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -38858,17 +38858,17 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>1101030013</t>
+          <t>1506010001</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA 2 TRONCOS</t>
+          <t>SANSEVIERIA</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>C17A245</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -38878,12 +38878,12 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -38893,10 +38893,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>14.95</v>
+        <v>16.95</v>
       </c>
       <c r="J89" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="K89" s="4" t="n">
         <v>0</v>
@@ -38914,7 +38914,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q89" s="4" t="n">
         <v>0</v>
@@ -38949,17 +38949,17 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>1506010001</t>
+          <t>1101030013</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>SANSEVIERIA</t>
+          <t>DRACAENA MARGINATA 2 TRONCOS</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>C17A245</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
@@ -38969,12 +38969,12 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -38984,10 +38984,10 @@
         <v>1</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>16.95</v>
+        <v>14.95</v>
       </c>
       <c r="J90" s="4" t="n">
-        <v>10.1</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K90" s="4" t="n">
         <v>0</v>
@@ -39005,7 +39005,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="4" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q90" s="4" t="n">
         <v>0</v>
@@ -41315,17 +41315,17 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>1102010023</t>
+          <t>1501060004</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA NATASJA</t>
+          <t>ANACAMPSEROS</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A10</t>
         </is>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -41335,12 +41335,12 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G116" s="4" t="n">
@@ -41350,13 +41350,13 @@
         <v>2</v>
       </c>
       <c r="I116" s="4" t="n">
-        <v>9.58</v>
+        <v>9.98</v>
       </c>
       <c r="J116" s="4" t="n">
-        <v>5.07</v>
+        <v>5.43</v>
       </c>
       <c r="K116" s="4" t="n">
-        <v>0</v>
+        <v>66.67</v>
       </c>
       <c r="L116" s="4" t="n">
         <v>0</v>
@@ -41368,55 +41368,55 @@
         <v>1</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="Q116" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S116" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T116" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T116" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U116" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
         </is>
       </c>
       <c r="V116" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W116" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
         <is>
-          <t>1501060004</t>
+          <t>1102010023</t>
         </is>
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>ANACAMPSEROS</t>
+          <t>FICUS BENJAMINA NATASJA</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
         <is>
-          <t>M12A10</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D117" s="3" t="inlineStr">
@@ -41426,12 +41426,12 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F117" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G117" s="4" t="n">
@@ -41441,13 +41441,13 @@
         <v>2</v>
       </c>
       <c r="I117" s="4" t="n">
-        <v>9.98</v>
+        <v>9.58</v>
       </c>
       <c r="J117" s="4" t="n">
-        <v>5.43</v>
+        <v>5.07</v>
       </c>
       <c r="K117" s="4" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="L117" s="4" t="n">
         <v>0</v>
@@ -41459,38 +41459,38 @@
         <v>1</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q117" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S117" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T117" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T117" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U117" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN PARCIAL: Aplicar descuento 30% a stock actual. Reducir compras 50% próxima temporada. Producto de baja rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V117" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W117" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -41952,24 +41952,32 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1601020000</t>
+          <t>1104060001</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO TERRARIO 3L</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr"/>
-      <c r="D123" s="3" t="inlineStr"/>
+          <t>NEPHROLEPIS BOSTON</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>M15A30</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
@@ -41979,16 +41987,16 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>6.75</v>
+        <v>7.99</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="K123" s="4" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="L123" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M123" s="5" t="n">
         <v>0.2</v>
@@ -41997,70 +42005,62 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P123" s="4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q123" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R123" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S123" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T123" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T123" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U123" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V123" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W123" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1104060001</t>
+          <t>1601020000</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS BOSTON</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>M15A30</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SUSTRATO TERRARIO 3L</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr"/>
+      <c r="D124" s="3" t="inlineStr"/>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
@@ -42070,16 +42070,16 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>7.99</v>
+        <v>6.75</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="L124" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M124" s="5" t="n">
         <v>0.2</v>
@@ -42088,38 +42088,38 @@
         <v>0.5</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T124" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T124" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -42672,12 +42672,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>1501070011</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -42728,7 +42728,7 @@
         <v>6</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="4" t="n">
         <v>59</v>
@@ -42854,12 +42854,12 @@
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1501070011</t>
         </is>
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -42910,7 +42910,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q133" s="4" t="n">
         <v>59</v>
@@ -43218,17 +43218,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>1502010005</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>ALOE TIKI TAHI</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M7A20</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -43238,43 +43238,43 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H137" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" s="4" t="n">
-        <v>6.98</v>
+        <v>5.99</v>
       </c>
       <c r="J137" s="4" t="n">
-        <v>3.93</v>
+        <v>3.03</v>
       </c>
       <c r="K137" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L137" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M137" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N137" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O137" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>0</v>
@@ -43309,17 +43309,17 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1502010005</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ALOE TIKI TAHI</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>M7A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -43329,43 +43329,43 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H138" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J138" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K138" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L138" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N138" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="I138" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J138" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K138" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N138" s="5" t="n">
-        <v>0.2</v>
       </c>
       <c r="O138" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q138" s="4" t="n">
         <v>0</v>
@@ -45383,28 +45383,36 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+          <t>BRASSIA 1SP</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M12A55</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>
@@ -45419,7 +45427,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -45428,7 +45436,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
@@ -45437,7 +45445,7 @@
         <v>92</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>30</v>
@@ -45449,7 +45457,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -45466,17 +45474,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -45486,16 +45494,16 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0</v>
@@ -45510,7 +45518,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45519,19 +45527,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>120</v>
+        <v>306.67</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T3" s="6" t="inlineStr">
         <is>
@@ -45540,12 +45548,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -45557,12 +45565,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -45593,7 +45601,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -45602,19 +45610,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>110</v>
+        <v>306.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45623,12 +45631,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45640,17 +45648,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
+          <t>DRACAENA MARGINATA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>C25A110</t>
+          <t>C24A100</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -45684,7 +45692,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -45693,19 +45701,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -45714,12 +45722,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -45731,17 +45739,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45775,7 +45783,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -45784,19 +45792,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
@@ -45805,12 +45813,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -45822,28 +45830,36 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>CAMPANULA + CUBRE ZINK</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>M55A10</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -45858,7 +45874,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45867,16 +45883,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>306.67</v>
+        <v>286.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -45888,12 +45904,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45905,17 +45921,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45925,12 +45941,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45949,7 +45965,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45958,19 +45974,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>176.67</v>
+        <v>0</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -45979,12 +45995,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -45996,17 +46012,17 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
+          <t>MAMMILLARIA CATERPINCY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>M13A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -46016,16 +46032,16 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>0</v>
@@ -46040,7 +46056,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -46049,16 +46065,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S9" s="5" t="n">
         <v>30</v>
@@ -46070,12 +46086,12 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
@@ -46087,17 +46103,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46107,16 +46123,16 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>0</v>
@@ -46131,7 +46147,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46140,16 +46156,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>613.33</v>
+        <v>176.67</v>
       </c>
       <c r="S10" s="5" t="n">
         <v>30</v>
@@ -46161,12 +46177,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46178,17 +46194,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -46198,12 +46214,12 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -46222,7 +46238,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46231,16 +46247,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -46252,12 +46268,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -46269,17 +46285,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>MANGAVE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -46313,7 +46329,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -46322,19 +46338,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>196.67</v>
+        <v>93.33</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46343,12 +46359,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46360,17 +46376,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C20A110</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -46380,12 +46396,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -46419,10 +46435,10 @@
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5" t="n">
         <v>0</v>
@@ -46439,7 +46455,7 @@
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -46451,17 +46467,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M13A50</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -46495,7 +46511,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46504,16 +46520,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>286.67</v>
+        <v>213.33</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>30</v>
@@ -46530,7 +46546,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46542,12 +46558,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -46578,7 +46594,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46587,19 +46603,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>96.67</v>
+        <v>306.67</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T15" s="6" t="inlineStr">
         <is>
@@ -46608,12 +46624,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46625,36 +46641,28 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr"/>
+      <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
@@ -46669,7 +46677,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46678,19 +46686,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>113.33</v>
+        <v>1314.29</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
@@ -46699,12 +46707,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -46716,36 +46724,28 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>M85A20</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr"/>
+      <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
@@ -46760,7 +46760,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46769,19 +46769,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>400</v>
+        <v>110</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T17" s="6" t="inlineStr">
         <is>
@@ -46790,12 +46790,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -46807,17 +46807,17 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -46827,12 +46827,12 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46851,7 +46851,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46860,19 +46860,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T18" s="6" t="inlineStr">
         <is>
@@ -46881,12 +46881,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -46898,28 +46898,36 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>M105A20</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>0</v>
@@ -46934,7 +46942,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46943,7 +46951,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
@@ -46952,7 +46960,7 @@
         <v>92</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46964,7 +46972,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -46981,17 +46989,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -47001,16 +47009,16 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>0</v>
@@ -47025,7 +47033,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47034,7 +47042,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -47043,7 +47051,7 @@
         <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -47055,7 +47063,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -47072,28 +47080,36 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>M12A40</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>0</v>
@@ -47108,7 +47124,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47117,7 +47133,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
@@ -47126,7 +47142,7 @@
         <v>92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S21" s="5" t="n">
         <v>30</v>
@@ -47138,7 +47154,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -47155,17 +47171,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>LILIUM ROSA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M13A40</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -47175,16 +47191,16 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>0</v>
@@ -47214,10 +47230,10 @@
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>30</v>
@@ -47229,12 +47245,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47246,17 +47262,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>OPUNTIA RETICULATA COBRA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -47266,12 +47282,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -47290,7 +47306,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -47299,19 +47315,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>93.33</v>
+        <v>196.67</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T23" s="6" t="inlineStr">
         <is>
@@ -47320,12 +47336,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -47337,17 +47353,17 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>FICUS GINSENG + CERAMICA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M15A40</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -47357,12 +47373,12 @@
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -47381,7 +47397,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47390,19 +47406,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>93.33</v>
+        <v>56.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -47411,12 +47427,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -47428,32 +47444,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>C22A150</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -47472,7 +47480,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -47481,19 +47489,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>93.33</v>
+        <v>306.67</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -47502,12 +47510,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -47519,17 +47527,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -47539,16 +47547,16 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H26" s="4" t="n">
         <v>0</v>
@@ -47563,7 +47571,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47572,16 +47580,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>400</v>
+        <v>306.67</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -47593,12 +47601,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47610,17 +47618,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>VRIESEA MADONNA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -47654,7 +47662,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47663,7 +47671,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -47684,7 +47692,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -47701,17 +47709,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -47721,16 +47729,16 @@
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H28" s="4" t="n">
         <v>0</v>
@@ -47745,7 +47753,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47754,7 +47762,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
@@ -47763,7 +47771,7 @@
         <v>92</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S28" s="5" t="n">
         <v>30</v>
@@ -47775,7 +47783,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -47792,17 +47800,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -47812,16 +47820,16 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>0</v>
@@ -47836,7 +47844,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0</v>
@@ -47845,19 +47853,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T29" s="6" t="inlineStr">
         <is>
@@ -47866,12 +47874,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -47883,17 +47891,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47903,16 +47911,16 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H30" s="4" t="n">
         <v>0</v>
@@ -47927,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47936,7 +47944,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
@@ -47945,7 +47953,7 @@
         <v>92</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S30" s="5" t="n">
         <v>30</v>
@@ -47957,7 +47965,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -47974,36 +47982,28 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>M12A45</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -48018,7 +48018,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48027,7 +48027,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -48036,7 +48036,7 @@
         <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -48048,7 +48048,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -48065,17 +48065,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48085,16 +48085,16 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>0</v>
@@ -48109,7 +48109,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>0</v>
@@ -48118,16 +48118,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>306.67</v>
+        <v>400</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -48139,12 +48139,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -48156,17 +48156,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
+          <t>ALOCASIA BAGINDA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M14A35</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -48176,16 +48176,16 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>0</v>
@@ -48200,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48209,19 +48209,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>613.33</v>
+        <v>143.33</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -48230,12 +48230,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -48247,28 +48247,36 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr"/>
-      <c r="D34" s="3" t="inlineStr"/>
+          <t>SARRACENIA</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>M6A20</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -48283,7 +48291,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48292,7 +48300,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
@@ -48301,7 +48309,7 @@
         <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -48313,7 +48321,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -48330,17 +48338,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48350,16 +48358,16 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -48374,7 +48382,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -48383,16 +48391,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -48404,12 +48412,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -48421,17 +48429,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>FICUS ELASTICA MEZCLA</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -48441,12 +48449,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -48465,7 +48473,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -48474,16 +48482,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -48495,12 +48503,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -48512,24 +48520,32 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
+          <t>CHAMAEDOREA</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>C20A110</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -48548,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48557,19 +48573,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
@@ -48578,12 +48594,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -48595,17 +48611,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -48615,12 +48631,12 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -48639,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48648,16 +48664,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -48669,12 +48685,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -48686,32 +48702,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>C20A60</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -48730,7 +48738,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48739,7 +48747,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
@@ -48760,7 +48768,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -48777,17 +48785,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48797,16 +48805,16 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>0</v>
@@ -48821,7 +48829,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48830,19 +48838,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>60</v>
+        <v>613.33</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T40" s="6" t="inlineStr">
         <is>
@@ -48851,12 +48859,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -48868,17 +48876,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48888,12 +48896,12 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -48912,7 +48920,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48921,16 +48929,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -48942,12 +48950,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48959,17 +48967,17 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -48979,16 +48987,16 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>0</v>
@@ -49003,7 +49011,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -49012,19 +49020,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>106.67</v>
+        <v>613.33</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T42" s="6" t="inlineStr">
         <is>
@@ -49033,12 +49041,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -49050,17 +49058,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -49094,7 +49102,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -49103,19 +49111,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T43" s="6" t="inlineStr">
         <is>
@@ -49124,12 +49132,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -49141,12 +49149,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -49207,7 +49215,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -49224,28 +49232,36 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>STEPHANOTIS PIRAMIDE</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>C20A90</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -49260,7 +49276,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>0</v>
@@ -49269,19 +49285,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>1314.29</v>
+        <v>120</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -49290,12 +49306,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -49307,17 +49323,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -49351,7 +49367,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M46" s="5" t="n">
         <v>0</v>
@@ -49360,7 +49376,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>92</v>
@@ -49381,7 +49397,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -49398,17 +49414,17 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>C23A50</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -49418,16 +49434,16 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -49442,7 +49458,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49451,19 +49467,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -49472,12 +49488,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -49489,24 +49505,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>ARECA LUTESCENS</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>C32A200</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -49540,13 +49564,13 @@
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T48" s="6" t="inlineStr">
         <is>
@@ -49555,12 +49579,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -49572,17 +49596,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -49592,16 +49616,16 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>0</v>
@@ -49616,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49625,7 +49649,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -49634,7 +49658,7 @@
         <v>92</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S49" s="5" t="n">
         <v>30</v>
@@ -49646,7 +49670,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -49663,32 +49687,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>M65A10</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT IZUMI</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -49707,7 +49723,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49716,16 +49732,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>30</v>
@@ -49737,12 +49753,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -49754,36 +49770,28 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>M6A20</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H51" s="4" t="n">
         <v>0</v>
@@ -49798,7 +49806,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49807,7 +49815,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
@@ -49816,7 +49824,7 @@
         <v>92</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S51" s="5" t="n">
         <v>30</v>
@@ -49828,7 +49836,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -49845,17 +49853,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M15A40</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49865,16 +49873,16 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H52" s="4" t="n">
         <v>0</v>
@@ -49889,7 +49897,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49898,7 +49906,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
@@ -49907,10 +49915,10 @@
         <v>17</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>56.67</v>
+        <v>113.33</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49919,7 +49927,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -49936,24 +49944,32 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr"/>
-      <c r="D53" s="3" t="inlineStr"/>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>M12A30</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49972,7 +49988,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49981,7 +49997,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
@@ -50002,7 +50018,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -50019,17 +50035,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -50039,12 +50055,12 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -50063,7 +50079,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50072,19 +50088,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0</v>
+        <v>176.67</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T54" s="6" t="inlineStr">
         <is>
@@ -50093,12 +50109,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -50110,32 +50126,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>M55A10</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -50154,7 +50162,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50163,19 +50171,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T55" s="6" t="inlineStr">
         <is>
@@ -50184,12 +50192,12 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
@@ -50201,17 +50209,17 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -50221,16 +50229,16 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H56" s="4" t="n">
         <v>0</v>
@@ -50245,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50254,19 +50262,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50275,12 +50283,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50292,17 +50300,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -50312,16 +50320,16 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
@@ -50336,7 +50344,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50345,19 +50353,19 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>113.33</v>
+        <v>196.67</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T57" s="6" t="inlineStr">
         <is>
@@ -50366,12 +50374,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -50383,17 +50391,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -50427,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50436,16 +50444,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S58" s="5" t="n">
         <v>30</v>
@@ -50457,12 +50465,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -50474,36 +50482,28 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>C17A80</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
@@ -50518,7 +50518,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50527,19 +50527,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>113.33</v>
+        <v>96.67</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T59" s="6" t="inlineStr">
         <is>
@@ -50548,12 +50548,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50565,36 +50565,28 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>C32A200</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>RAMO BOUQUET 5 ROSAS</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
@@ -50609,7 +50601,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50618,19 +50610,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>60</v>
+        <v>1314.29</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T60" s="6" t="inlineStr">
         <is>
@@ -50639,12 +50631,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -50656,17 +50648,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50700,7 +50692,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -50709,19 +50701,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>143.33</v>
+        <v>306.67</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T61" s="6" t="inlineStr">
         <is>
@@ -50730,12 +50722,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50747,17 +50739,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50767,16 +50759,16 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H62" s="4" t="n">
         <v>0</v>
@@ -50791,7 +50783,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50800,16 +50792,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>113.33</v>
+        <v>106.67</v>
       </c>
       <c r="S62" s="5" t="n">
         <v>20</v>
@@ -50826,7 +50818,7 @@
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50838,16 +50830,24 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>C19A20</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -50874,7 +50874,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50883,7 +50883,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
@@ -50904,7 +50904,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50921,17 +50921,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50941,12 +50941,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50965,7 +50965,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50974,16 +50974,16 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S64" s="5" t="n">
         <v>30</v>
@@ -50995,12 +50995,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -51012,17 +51012,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -51032,16 +51032,16 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
@@ -51056,7 +51056,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51065,7 +51065,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
@@ -51074,7 +51074,7 @@
         <v>92</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>30</v>
@@ -51086,7 +51086,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -51103,17 +51103,17 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>CHLOROPHYTUM</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -51147,7 +51147,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M66" s="5" t="n">
         <v>0</v>
@@ -51156,19 +51156,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -51177,12 +51177,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -51194,17 +51194,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -51214,16 +51214,16 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -51238,7 +51238,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M67" s="5" t="n">
         <v>0</v>
@@ -51247,16 +51247,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>213.33</v>
+        <v>306.67</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>30</v>
@@ -51268,12 +51268,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -13999,17 +13999,17 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>1106130001</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ASPIDISTRA</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>C17A110</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
@@ -14019,49 +14019,49 @@
       </c>
       <c r="E150" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G150" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H150" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I150" s="4" t="n">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="J150" s="4" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="K150" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L150" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N150" s="5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O150" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I150" s="4" t="n">
-        <v>83.97</v>
-      </c>
-      <c r="J150" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="K150" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="L150" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M150" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N150" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O150" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="P150" s="4" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q150" s="4" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="R150" s="4" t="n">
-        <v>196.67</v>
+        <v>213.33</v>
       </c>
       <c r="S150" s="5" t="n">
         <v>30</v>
@@ -14073,34 +14073,34 @@
       </c>
       <c r="U150" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V150" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W150" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1106130001</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ASPIDISTRA</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>C17A110</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -14110,49 +14110,49 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F151" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G151" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H151" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I151" s="4" t="n">
+        <v>83.97</v>
+      </c>
+      <c r="J151" s="4" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="K151" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="L151" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I151" s="4" t="n">
-        <v>79.65000000000001</v>
-      </c>
-      <c r="J151" s="4" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="K151" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="L151" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="M151" s="5" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N151" s="5" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O151" s="4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="P151" s="4" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="Q151" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R151" s="4" t="n">
-        <v>213.33</v>
+        <v>196.67</v>
       </c>
       <c r="S151" s="5" t="n">
         <v>30</v>
@@ -14164,17 +14164,17 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V151" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W151" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -22676,17 +22676,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1201060000</t>
+          <t>1104060005</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 3SP</t>
+          <t>NEPHROLEPIS GREEN LADY</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M12A35</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -22696,49 +22696,49 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H67" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>45.98</v>
+        <v>41.94</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>23.32</v>
+        <v>19.65</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>286.67</v>
+        <v>306.67</v>
       </c>
       <c r="S67" s="5" t="n">
         <v>30</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -22767,17 +22767,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>1104060005</t>
+          <t>1201060000</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS GREEN LADY</t>
+          <t>MILTONIA 3SP</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>M12A35</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -22787,49 +22787,49 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>41.94</v>
+        <v>45.98</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>19.65</v>
+        <v>23.32</v>
       </c>
       <c r="K68" s="4" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>306.67</v>
+        <v>286.67</v>
       </c>
       <c r="S68" s="5" t="n">
         <v>30</v>
@@ -22846,7 +22846,7 @@
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -26482,17 +26482,17 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>1502080006</t>
+          <t>1104020006</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>PORTULACARIA MIX</t>
+          <t>ORNITHOGALUM DUBIUM</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -26502,49 +26502,49 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I109" s="4" t="n">
-        <v>43.89</v>
+        <v>35.7</v>
       </c>
       <c r="J109" s="4" t="n">
-        <v>24.72</v>
+        <v>17.27</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>36.67</v>
+        <v>75</v>
       </c>
       <c r="L109" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M109" s="5" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="Q109" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S109" s="5" t="n">
         <v>30</v>
@@ -26556,34 +26556,34 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W109" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>1104020006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>ORNITHOGALUM DUBIUM</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -26605,76 +26605,76 @@
         <v>30</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I110" s="4" t="n">
-        <v>35.7</v>
+        <v>38.96</v>
       </c>
       <c r="J110" s="4" t="n">
-        <v>17.27</v>
+        <v>20.24</v>
       </c>
       <c r="K110" s="4" t="n">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="L110" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="Q110" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>306.67</v>
+        <v>106.67</v>
       </c>
       <c r="S110" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T110" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T110" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W110" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1502080006</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>PORTULACARIA MIX</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -26684,71 +26684,71 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I111" s="4" t="n">
-        <v>38.96</v>
+        <v>43.89</v>
       </c>
       <c r="J111" s="4" t="n">
-        <v>20.24</v>
+        <v>24.72</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>37.5</v>
+        <v>36.67</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M111" s="5" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="O111" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="P111" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="P111" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="Q111" s="4" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>106.67</v>
+        <v>196.67</v>
       </c>
       <c r="S111" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T111" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T111" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W111" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -27665,12 +27665,12 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010062</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TAZA PEQUEÑA</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
@@ -27692,16 +27692,16 @@
         <v>1</v>
       </c>
       <c r="I122" s="4" t="n">
-        <v>34.95</v>
+        <v>39.95</v>
       </c>
       <c r="J122" s="4" t="n">
-        <v>17.77</v>
+        <v>22.32</v>
       </c>
       <c r="K122" s="4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L122" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" s="5" t="n">
         <v>0.2</v>
@@ -27710,50 +27710,50 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q122" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R122" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S122" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T122" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T122" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U122" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V122" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W122" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1602010087</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TETERA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
@@ -27775,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>34.49</v>
+        <v>34.95</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>17.35</v>
+        <v>17.77</v>
       </c>
       <c r="K123" s="4" t="n">
         <v>50</v>
@@ -27831,12 +27831,12 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1602010062</t>
+          <t>1602010087</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION TAZA PEQUEÑA</t>
+          <t>COMPOSICION TETERA PEQUEÑA</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr"/>
@@ -27858,16 +27858,16 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>39.95</v>
+        <v>34.49</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>22.32</v>
+        <v>17.35</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L124" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="5" t="n">
         <v>0.2</v>
@@ -27876,38 +27876,38 @@
         <v>0.5</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T124" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T124" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -28725,17 +28725,17 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>1501070006</t>
+          <t>1106060003</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>CACTUS MIX CAJA 9UD</t>
+          <t>CROTON MIX</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
         <is>
-          <t>M3I5A5</t>
+          <t>M15A20</t>
         </is>
       </c>
       <c r="D134" s="3" t="inlineStr">
@@ -28745,88 +28745,88 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G134" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H134" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I134" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J134" s="4" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="K134" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L134" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N134" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I134" s="4" t="n">
-        <v>35.98</v>
-      </c>
-      <c r="J134" s="4" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="K134" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L134" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M134" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N134" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="O134" s="4" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="P134" s="4" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q134" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R134" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S134" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T134" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T134" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U134" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V134" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W134" s="4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>1106060003</t>
+          <t>1501070006</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>CROTON MIX</t>
+          <t>CACTUS MIX CAJA 9UD</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>M15A20</t>
+          <t>M3I5A5</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -28836,71 +28836,71 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F135" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G135" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H135" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I135" s="4" t="n">
-        <v>37</v>
+        <v>35.98</v>
       </c>
       <c r="J135" s="4" t="n">
-        <v>20.28</v>
+        <v>19.35</v>
       </c>
       <c r="K135" s="4" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="L135" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M135" s="5" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N135" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O135" s="4" t="n">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="P135" s="4" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q135" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R135" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S135" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T135" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T135" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U135" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V135" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W135" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31428,17 +31428,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M13A20</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -31448,12 +31448,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -31463,10 +31463,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>27</v>
+        <v>19.98</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>13.85</v>
+        <v>7.46</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>0</v>
@@ -31484,7 +31484,7 @@
         <v>-2</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
@@ -31519,17 +31519,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>M13A20</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -31539,12 +31539,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -31554,10 +31554,10 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.98</v>
+        <v>27</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.46</v>
+        <v>13.85</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -31575,7 +31575,7 @@
         <v>-2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0</v>
@@ -33430,17 +33430,17 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>1106020026</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA PINK DRAGON</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>M14A45</t>
+          <t>C21A40</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -33450,12 +33450,12 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -33465,16 +33465,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>23.75</v>
+        <v>24.49</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>12.93</v>
+        <v>13.6</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>0.2</v>
@@ -33483,55 +33483,55 @@
         <v>0.5</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>20</v>
+      </c>
+      <c r="T29" s="7" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1106020026</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>ALOCASIA PINK DRAGON</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>C21A40</t>
+          <t>M14A45</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -33541,12 +33541,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -33556,16 +33556,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>24.49</v>
+        <v>23.75</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>13.6</v>
+        <v>12.93</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0.2</v>
@@ -33574,38 +33574,38 @@
         <v>0.5</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>0</v>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>REDUCCIÓN AGRESIVA: Aplicar descuento 20% inmediato. Reducir compras 70% próxima temporada. Stock objetivo: 1 unidades. Riesgo alto de merma.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -35697,17 +35697,17 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1108140019</t>
+          <t>1105070005</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>SENECIO MIX</t>
+          <t>SYNGONIUM PINK</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>C20COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
@@ -35732,13 +35732,13 @@
         <v>2</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>28.98</v>
+        <v>18.98</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>19.11</v>
+        <v>10.01</v>
       </c>
       <c r="K54" s="4" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L54" s="4" t="n">
         <v>0</v>
@@ -35750,55 +35750,55 @@
         <v>1</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>196.67</v>
+        <v>0</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T54" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T54" s="8" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26D</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1105070005</t>
+          <t>1108140019</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM PINK</t>
+          <t>SENECIO MIX</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>C20COLG</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -35823,13 +35823,13 @@
         <v>2</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>18.98</v>
+        <v>28.98</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>10.01</v>
+        <v>19.11</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="L55" s="4" t="n">
         <v>0</v>
@@ -35841,38 +35841,38 @@
         <v>1</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>0</v>
+        <v>196.67</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="8" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T55" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>RECOMPRA CONSERVADORA: Producto agotado de baja rotación. Reducir compras 40% próxima temporada. Stock objetivo mínimo: 1 unidades.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W55" s="4" t="inlineStr">
         <is>
-          <t>26D</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -36963,17 +36963,17 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>1105070006</t>
+          <t>1106020003</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>SYNGONIUM MOTTLED</t>
+          <t>ALOCASIA WENTII</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -36995,37 +36995,37 @@
         <v>30</v>
       </c>
       <c r="H68" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>17</v>
+        <v>17.95</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>8.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>16.67</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P68" s="4" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q68" s="4" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="R68" s="4" t="n">
-        <v>306.67</v>
+        <v>246.67</v>
       </c>
       <c r="S68" s="5" t="n">
         <v>30</v>
@@ -37037,12 +37037,12 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/03/2025</t>
         </is>
       </c>
       <c r="W68" s="4" t="inlineStr">
@@ -37054,17 +37054,17 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>1106020003</t>
+          <t>1105070006</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA WENTII</t>
+          <t>SYNGONIUM MOTTLED</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
@@ -37086,37 +37086,37 @@
         <v>30</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>17.95</v>
+        <v>17</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="K69" s="4" t="n">
         <v>16.67</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N69" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P69" s="4" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="Q69" s="4" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="R69" s="4" t="n">
-        <v>246.67</v>
+        <v>306.67</v>
       </c>
       <c r="S69" s="5" t="n">
         <v>30</v>
@@ -37128,12 +37128,12 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W69" s="4" t="inlineStr">
@@ -37857,17 +37857,17 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>1501070002</t>
+          <t>1107050001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>CEREUS PERUVIANUS</t>
+          <t>FICUS BELICE</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>M85A15</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -37877,43 +37877,43 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>17.94</v>
+        <v>19.9</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>10.31</v>
+        <v>12.09</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M78" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N78" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="N78" s="5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="O78" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0</v>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -37948,17 +37948,17 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>1107050001</t>
+          <t>1501070002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FICUS BELICE</t>
+          <t>CEREUS PERUVIANUS</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M85A15</t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -37968,43 +37968,43 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
         <v>30</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>19.9</v>
+        <v>17.94</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>12.09</v>
+        <v>10.31</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="N79" s="5" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -2 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -41588,17 +41588,17 @@
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
         <is>
-          <t>1502010004</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>ALOE DANNYZ</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -41608,25 +41608,25 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G119" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H119" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I119" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="J119" s="4" t="n">
-        <v>5.24</v>
+        <v>5.51</v>
       </c>
       <c r="K119" s="4" t="n">
         <v>0</v>
@@ -41635,16 +41635,16 @@
         <v>0</v>
       </c>
       <c r="M119" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N119" s="5" t="n">
         <v>0.2</v>
-      </c>
-      <c r="N119" s="5" t="n">
-        <v>0.5</v>
       </c>
       <c r="O119" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P119" s="4" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q119" s="4" t="n">
         <v>0</v>
@@ -41679,17 +41679,17 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1502010004</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>ALOE DANNYZ</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D120" s="3" t="inlineStr">
@@ -41699,25 +41699,25 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G120" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H120" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I120" s="4" t="n">
-        <v>9.85</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="J120" s="4" t="n">
-        <v>5.51</v>
+        <v>5.24</v>
       </c>
       <c r="K120" s="4" t="n">
         <v>0</v>
@@ -41726,16 +41726,16 @@
         <v>0</v>
       </c>
       <c r="M120" s="5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N120" s="5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="O120" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P120" s="4" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q120" s="4" t="n">
         <v>0</v>
@@ -41952,32 +41952,24 @@
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
         <is>
-          <t>1104060001</t>
+          <t>1601020000</t>
         </is>
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS BOSTON</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>M15A30</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SUSTRATO TERRARIO 3L</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr"/>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G123" s="4" t="n">
@@ -41987,16 +41979,16 @@
         <v>1</v>
       </c>
       <c r="I123" s="4" t="n">
-        <v>7.99</v>
+        <v>6.75</v>
       </c>
       <c r="J123" s="4" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="K123" s="4" t="n">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="L123" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M123" s="5" t="n">
         <v>0.2</v>
@@ -42005,62 +41997,70 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="4" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P123" s="4" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q123" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R123" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S123" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T123" s="8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T123" s="6" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U123" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V123" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W123" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>1601020000</t>
+          <t>1104060001</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>SUSTRATO TERRARIO 3L</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr"/>
-      <c r="D124" s="3" t="inlineStr"/>
+          <t>NEPHROLEPIS BOSTON</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>M15A30</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G124" s="4" t="n">
@@ -42070,16 +42070,16 @@
         <v>1</v>
       </c>
       <c r="I124" s="4" t="n">
-        <v>6.75</v>
+        <v>7.99</v>
       </c>
       <c r="J124" s="4" t="n">
-        <v>3.14</v>
+        <v>4.26</v>
       </c>
       <c r="K124" s="4" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
       <c r="L124" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M124" s="5" t="n">
         <v>0.2</v>
@@ -42088,38 +42088,38 @@
         <v>0.5</v>
       </c>
       <c r="O124" s="4" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="P124" s="4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q124" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R124" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S124" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="T124" s="6" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T124" s="8" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U124" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.6€. Prioridad máxima.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V124" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W124" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -42672,12 +42672,12 @@
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1501060008</t>
         </is>
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CRASSULA TECTA</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -42728,7 +42728,7 @@
         <v>6</v>
       </c>
       <c r="P131" s="4" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="Q131" s="4" t="n">
         <v>59</v>
@@ -42763,12 +42763,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>1501060008</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>CRASSULA TECTA</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -42819,7 +42819,7 @@
         <v>6</v>
       </c>
       <c r="P132" s="4" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="4" t="n">
         <v>59</v>
@@ -43218,17 +43218,17 @@
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1502010005</t>
         </is>
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ALOE TIKI TAHI</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
         <is>
-          <t>M7A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -43238,43 +43238,43 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G137" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H137" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I137" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J137" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K137" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="L137" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N137" s="5" t="n">
         <v>1</v>
-      </c>
-      <c r="I137" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J137" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M137" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N137" s="5" t="n">
-        <v>0.2</v>
       </c>
       <c r="O137" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P137" s="4" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q137" s="4" t="n">
         <v>0</v>
@@ -43309,17 +43309,17 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>1502010005</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>ALOE TIKI TAHI</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M7A20</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -43329,43 +43329,43 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G138" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H138" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="4" t="n">
-        <v>6.98</v>
+        <v>5.99</v>
       </c>
       <c r="J138" s="4" t="n">
-        <v>3.93</v>
+        <v>3.03</v>
       </c>
       <c r="K138" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L138" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M138" s="5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N138" s="5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O138" s="4" t="n">
         <v>-1</v>
       </c>
       <c r="P138" s="4" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Q138" s="4" t="n">
         <v>0</v>
@@ -45383,17 +45383,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -45403,16 +45403,16 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" s="4" t="n">
         <v>0</v>
@@ -45427,7 +45427,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="M2" s="5" t="n">
         <v>0</v>
@@ -45436,19 +45436,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T2" s="6" t="inlineStr">
         <is>
@@ -45457,12 +45457,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -45474,17 +45474,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -45494,16 +45494,16 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>0</v>
@@ -45518,7 +45518,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M3" s="5" t="n">
         <v>0</v>
@@ -45527,7 +45527,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>92</v>
@@ -45536,7 +45536,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>30</v>
@@ -45548,7 +45548,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -45565,24 +45565,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>PLANTA VERDE MIX EN COCO</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>M9COLG</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -45601,7 +45609,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -45610,19 +45618,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>306.67</v>
+        <v>106.67</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T4" s="6" t="inlineStr">
         <is>
@@ -45631,12 +45639,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -45648,17 +45656,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1501070012</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -45668,12 +45676,12 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -45692,7 +45700,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -45701,19 +45709,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>93.33</v>
+        <v>196.67</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T5" s="6" t="inlineStr">
         <is>
@@ -45722,12 +45730,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -45739,17 +45747,17 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>C22A150</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -45759,16 +45767,16 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="n">
         <v>0</v>
@@ -45783,7 +45791,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -45792,19 +45800,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>93.33</v>
+        <v>613.33</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T6" s="6" t="inlineStr">
         <is>
@@ -45813,12 +45821,12 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -45830,17 +45838,17 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -45850,16 +45858,16 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
@@ -45874,7 +45882,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -45883,16 +45891,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>286.67</v>
+        <v>306.67</v>
       </c>
       <c r="S7" s="5" t="n">
         <v>30</v>
@@ -45904,12 +45912,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -45921,17 +45929,17 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>TERRARIO ECLOZ CHIC I</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -45941,12 +45949,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -45965,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -45974,19 +45982,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T8" s="6" t="inlineStr">
         <is>
@@ -45995,12 +46003,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -46012,12 +46020,12 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>1501070009</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MAMMILLARIA CATERPINCY</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -46103,17 +46111,17 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -46123,12 +46131,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -46147,7 +46155,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -46156,19 +46164,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>176.67</v>
+        <v>0</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6" t="inlineStr">
         <is>
@@ -46177,12 +46185,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -46194,17 +46202,17 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
+          <t>CAMBRIA 2SP + CERAMICA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -46214,16 +46222,16 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>0</v>
@@ -46238,7 +46246,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -46247,7 +46255,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
@@ -46256,7 +46264,7 @@
         <v>92</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S11" s="5" t="n">
         <v>30</v>
@@ -46268,7 +46276,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -46285,17 +46293,17 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -46305,12 +46313,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -46329,7 +46337,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -46338,19 +46346,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>93.33</v>
+        <v>60</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T12" s="6" t="inlineStr">
         <is>
@@ -46359,12 +46367,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -46376,17 +46384,17 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -46396,12 +46404,12 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -46420,7 +46428,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -46429,19 +46437,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T13" s="6" t="inlineStr">
         <is>
@@ -46450,12 +46458,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -46467,17 +46475,17 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -46487,16 +46495,16 @@
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="n">
         <v>0</v>
@@ -46511,7 +46519,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>0</v>
@@ -46520,19 +46528,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>213.33</v>
+        <v>93.33</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T14" s="6" t="inlineStr">
         <is>
@@ -46541,12 +46549,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -46558,28 +46566,36 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>CURCUMA MIX</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>M13A50</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>0</v>
@@ -46594,7 +46610,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>0</v>
@@ -46603,16 +46619,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>306.67</v>
+        <v>213.33</v>
       </c>
       <c r="S15" s="5" t="n">
         <v>30</v>
@@ -46624,12 +46640,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -46641,28 +46657,28 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
+          <t>COMPOSICION CESTA CUADRADA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>0</v>
@@ -46677,7 +46693,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -46686,19 +46702,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>1314.29</v>
+        <v>110</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T16" s="6" t="inlineStr">
         <is>
@@ -46707,12 +46723,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -46724,28 +46740,36 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="inlineStr"/>
+          <t>MILTONIA 1SP</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>M12A40</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>0</v>
@@ -46760,7 +46784,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
@@ -46769,16 +46793,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>110</v>
+        <v>113.33</v>
       </c>
       <c r="S17" s="5" t="n">
         <v>20</v>
@@ -46795,7 +46819,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -46807,32 +46831,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>C22A50</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -46851,7 +46867,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -46860,7 +46876,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
@@ -46881,7 +46897,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -46898,17 +46914,17 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>OXALIS BRASILIENSIS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -46942,7 +46958,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M19" s="5" t="n">
         <v>0</v>
@@ -46951,16 +46967,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S19" s="5" t="n">
         <v>30</v>
@@ -46972,12 +46988,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -46989,17 +47005,17 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>M9A25</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -47009,16 +47025,16 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H20" s="4" t="n">
         <v>0</v>
@@ -47033,7 +47049,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>0</v>
@@ -47042,7 +47058,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>92</v>
@@ -47051,7 +47067,7 @@
         <v>92</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S20" s="5" t="n">
         <v>30</v>
@@ -47063,7 +47079,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -47080,32 +47096,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>M12A40</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -47124,7 +47132,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M21" s="5" t="n">
         <v>0</v>
@@ -47133,19 +47141,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>306.67</v>
+        <v>96.67</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T21" s="6" t="inlineStr">
         <is>
@@ -47154,12 +47162,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -47171,17 +47179,17 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
+          <t>OPUNTIA RETICULATA COBRA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>M13A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -47191,16 +47199,16 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H22" s="4" t="n">
         <v>0</v>
@@ -47215,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>0</v>
@@ -47224,16 +47232,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S22" s="5" t="n">
         <v>30</v>
@@ -47245,12 +47253,12 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -47262,17 +47270,17 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -47282,12 +47290,12 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -47306,7 +47314,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>0</v>
@@ -47315,16 +47323,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S23" s="5" t="n">
         <v>30</v>
@@ -47336,12 +47344,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -47353,32 +47361,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>M15A40</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -47397,7 +47397,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
         <v>0</v>
@@ -47406,19 +47406,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>56.67</v>
+        <v>306.67</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T24" s="6" t="inlineStr">
         <is>
@@ -47427,12 +47427,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -47444,24 +47444,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>DRACAENA MARGINATA</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>C24A100</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -47480,7 +47488,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0</v>
@@ -47489,19 +47497,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T25" s="6" t="inlineStr">
         <is>
@@ -47510,12 +47518,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -47527,17 +47535,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -47547,12 +47555,12 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -47571,7 +47579,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>0</v>
@@ -47580,16 +47588,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S26" s="5" t="n">
         <v>30</v>
@@ -47601,12 +47609,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -47618,36 +47626,28 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>M12A45</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>0</v>
@@ -47662,7 +47662,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>0</v>
@@ -47671,7 +47671,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>92</v>
@@ -47680,7 +47680,7 @@
         <v>92</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>613.33</v>
+        <v>1314.29</v>
       </c>
       <c r="S27" s="5" t="n">
         <v>30</v>
@@ -47692,7 +47692,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -47709,17 +47709,17 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -47753,7 +47753,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>0</v>
@@ -47762,19 +47762,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>613.33</v>
+        <v>113.33</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T28" s="6" t="inlineStr">
         <is>
@@ -47783,12 +47783,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -47891,17 +47891,17 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
+          <t>STEPHANOTIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -47911,12 +47911,12 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -47935,7 +47935,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>0</v>
@@ -47944,19 +47944,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>613.33</v>
+        <v>120</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T30" s="6" t="inlineStr">
         <is>
@@ -47965,12 +47965,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -47982,28 +47982,36 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="inlineStr"/>
+          <t>LILIUM ROSA</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>M13A40</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>0</v>
@@ -48018,7 +48026,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M31" s="5" t="n">
         <v>0</v>
@@ -48027,7 +48035,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>92</v>
@@ -48036,7 +48044,7 @@
         <v>92</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S31" s="5" t="n">
         <v>30</v>
@@ -48048,7 +48056,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -48065,17 +48073,17 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -48085,16 +48093,16 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H32" s="4" t="n">
         <v>0</v>
@@ -48124,10 +48132,10 @@
         <v>92</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>400</v>
+        <v>306.67</v>
       </c>
       <c r="S32" s="5" t="n">
         <v>30</v>
@@ -48139,12 +48147,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -48156,17 +48164,17 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>M14A35</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -48200,7 +48208,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M33" s="5" t="n">
         <v>0</v>
@@ -48209,19 +48217,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>143.33</v>
+        <v>306.67</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T33" s="6" t="inlineStr">
         <is>
@@ -48230,12 +48238,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -48247,17 +48255,17 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -48267,16 +48275,16 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>0</v>
@@ -48291,7 +48299,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>0</v>
@@ -48300,7 +48308,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>92</v>
@@ -48309,7 +48317,7 @@
         <v>92</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S34" s="5" t="n">
         <v>30</v>
@@ -48321,7 +48329,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -48338,17 +48346,17 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>1501070012</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>MYRTILLOCACTUS GEOMETRIZANS CESTATA</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -48358,16 +48366,16 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H35" s="4" t="n">
         <v>0</v>
@@ -48382,7 +48390,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M35" s="5" t="n">
         <v>0</v>
@@ -48391,16 +48399,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S35" s="5" t="n">
         <v>30</v>
@@ -48412,12 +48420,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -48429,17 +48437,17 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -48449,12 +48457,12 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -48473,7 +48481,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="5" t="n">
         <v>0</v>
@@ -48482,16 +48490,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S36" s="5" t="n">
         <v>30</v>
@@ -48503,12 +48511,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -48520,32 +48528,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>C20A110</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -48564,7 +48564,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>0</v>
@@ -48573,19 +48573,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T37" s="6" t="inlineStr">
         <is>
@@ -48594,12 +48594,12 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
@@ -48611,17 +48611,17 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>CAMPANULA + CUBRE ZINK</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -48631,16 +48631,16 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H38" s="4" t="n">
         <v>0</v>
@@ -48655,7 +48655,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M38" s="5" t="n">
         <v>0</v>
@@ -48664,16 +48664,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>306.67</v>
+        <v>286.67</v>
       </c>
       <c r="S38" s="5" t="n">
         <v>30</v>
@@ -48685,12 +48685,12 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -48702,24 +48702,32 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
+          <t>CHLOROPHYTUM</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>M15COLG</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -48738,7 +48746,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M39" s="5" t="n">
         <v>0</v>
@@ -48747,19 +48755,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>306.67</v>
+        <v>60</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T39" s="6" t="inlineStr">
         <is>
@@ -48768,12 +48776,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -48785,17 +48793,17 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -48805,16 +48813,16 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H40" s="4" t="n">
         <v>0</v>
@@ -48829,7 +48837,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M40" s="5" t="n">
         <v>0</v>
@@ -48838,7 +48846,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>92</v>
@@ -48847,7 +48855,7 @@
         <v>92</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S40" s="5" t="n">
         <v>30</v>
@@ -48859,7 +48867,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -48876,17 +48884,17 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -48896,16 +48904,16 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H41" s="4" t="n">
         <v>0</v>
@@ -48920,7 +48928,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M41" s="5" t="n">
         <v>0</v>
@@ -48929,16 +48937,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>176.67</v>
+        <v>613.33</v>
       </c>
       <c r="S41" s="5" t="n">
         <v>30</v>
@@ -48950,12 +48958,12 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -48967,36 +48975,28 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>M12A45</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H42" s="4" t="n">
         <v>0</v>
@@ -49011,7 +49011,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>0</v>
@@ -49020,7 +49020,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>92</v>
@@ -49029,7 +49029,7 @@
         <v>92</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S42" s="5" t="n">
         <v>30</v>
@@ -49041,7 +49041,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -49058,17 +49058,17 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
+          <t>VRIESEA MADONNA</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -49078,16 +49078,16 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H43" s="4" t="n">
         <v>0</v>
@@ -49102,7 +49102,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="M43" s="5" t="n">
         <v>0</v>
@@ -49111,19 +49111,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T43" s="6" t="inlineStr">
         <is>
@@ -49132,12 +49132,12 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -49149,24 +49149,32 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr"/>
-      <c r="D44" s="3" t="inlineStr"/>
+          <t>ALOCASIA BAGINDA</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>M14A35</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -49185,7 +49193,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M44" s="5" t="n">
         <v>0</v>
@@ -49194,19 +49202,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>306.67</v>
+        <v>143.33</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T44" s="6" t="inlineStr">
         <is>
@@ -49215,12 +49223,12 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -49232,17 +49240,17 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
+          <t>MANGAVE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -49252,16 +49260,16 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H45" s="4" t="n">
         <v>0</v>
@@ -49291,13 +49299,13 @@
         <v>92</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>120</v>
+        <v>93.33</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T45" s="6" t="inlineStr">
         <is>
@@ -49306,12 +49314,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -49323,17 +49331,17 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
@@ -49343,12 +49351,12 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -49382,13 +49390,13 @@
         <v>92</v>
       </c>
       <c r="Q46" s="4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T46" s="6" t="inlineStr">
         <is>
@@ -49397,12 +49405,12 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -49414,36 +49422,28 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>C17A80</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr"/>
+      <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H47" s="4" t="n">
         <v>0</v>
@@ -49458,7 +49458,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M47" s="5" t="n">
         <v>0</v>
@@ -49467,19 +49467,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T47" s="6" t="inlineStr">
         <is>
@@ -49488,12 +49488,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -49505,17 +49505,17 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>C32A200</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
@@ -49525,16 +49525,16 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H48" s="4" t="n">
         <v>0</v>
@@ -49549,7 +49549,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M48" s="5" t="n">
         <v>0</v>
@@ -49558,19 +49558,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>60</v>
+        <v>113.33</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T48" s="6" t="inlineStr">
         <is>
@@ -49579,12 +49579,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -49596,17 +49596,17 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>BRASSIA 1SP</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -49640,7 +49640,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M49" s="5" t="n">
         <v>0</v>
@@ -49649,7 +49649,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>92</v>
@@ -49670,7 +49670,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -49687,24 +49687,32 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1501070009</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
+          <t>MAMMILLARIA CATERPINCY</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -49723,7 +49731,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M50" s="5" t="n">
         <v>0</v>
@@ -49732,16 +49740,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S50" s="5" t="n">
         <v>30</v>
@@ -49753,12 +49761,12 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W50" s="4" t="inlineStr">
@@ -49770,16 +49778,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr"/>
-      <c r="D51" s="3" t="inlineStr"/>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>C19A20</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -49806,7 +49822,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M51" s="5" t="n">
         <v>0</v>
@@ -49815,7 +49831,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>92</v>
@@ -49836,7 +49852,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -49853,17 +49869,17 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -49873,12 +49889,12 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -49897,7 +49913,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M52" s="5" t="n">
         <v>0</v>
@@ -49906,19 +49922,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>113.33</v>
+        <v>400</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T52" s="6" t="inlineStr">
         <is>
@@ -49927,12 +49943,12 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W52" s="4" t="inlineStr">
@@ -49944,17 +49960,17 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
+          <t>FICUS GINSENG + CERAMICA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>M12A30</t>
+          <t>M15A40</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -49964,12 +49980,12 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -49988,7 +50004,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>0</v>
@@ -49997,19 +50013,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>306.67</v>
+        <v>56.67</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T53" s="6" t="inlineStr">
         <is>
@@ -50018,12 +50034,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -50035,24 +50051,16 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr"/>
+      <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
           <t>16</t>
@@ -50079,7 +50087,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M54" s="5" t="n">
         <v>0</v>
@@ -50088,16 +50096,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S54" s="5" t="n">
         <v>30</v>
@@ -50109,12 +50117,12 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W54" s="4" t="inlineStr">
@@ -50126,28 +50134,28 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+          <t>RAMO BOUQUET 5 ROSAS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
       <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H55" s="4" t="n">
         <v>0</v>
@@ -50162,7 +50170,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M55" s="5" t="n">
         <v>0</v>
@@ -50171,7 +50179,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>92</v>
@@ -50180,7 +50188,7 @@
         <v>92</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>306.67</v>
+        <v>1314.29</v>
       </c>
       <c r="S55" s="5" t="n">
         <v>30</v>
@@ -50192,7 +50200,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -50209,36 +50217,28 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>M12A50</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H56" s="4" t="n">
         <v>0</v>
@@ -50253,7 +50253,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M56" s="5" t="n">
         <v>0</v>
@@ -50262,19 +50262,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T56" s="6" t="inlineStr">
         <is>
@@ -50283,12 +50283,12 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W56" s="4" t="inlineStr">
@@ -50300,17 +50300,17 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>BEAUCARNEA TRONCO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>C22A50</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -50320,12 +50320,12 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -50344,7 +50344,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M57" s="5" t="n">
         <v>0</v>
@@ -50353,16 +50353,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R57" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S57" s="5" t="n">
         <v>30</v>
@@ -50374,12 +50374,12 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W57" s="4" t="inlineStr">
@@ -50391,17 +50391,17 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>CAMBRIA 1 TAK</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
@@ -50411,12 +50411,12 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -50435,7 +50435,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M58" s="5" t="n">
         <v>0</v>
@@ -50444,16 +50444,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S58" s="5" t="n">
         <v>30</v>
@@ -50465,12 +50465,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -50482,24 +50482,32 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr"/>
-      <c r="D59" s="3" t="inlineStr"/>
+          <t>CHAMAEDOREA</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>C20A110</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -50518,7 +50526,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M59" s="5" t="n">
         <v>0</v>
@@ -50527,19 +50535,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>96.67</v>
+        <v>60</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="6" t="inlineStr">
         <is>
@@ -50548,12 +50556,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -50565,28 +50573,28 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
+          <t>TERRARIO VIVANT IZUMI</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
@@ -50601,7 +50609,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" s="5" t="n">
         <v>0</v>
@@ -50610,7 +50618,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>92</v>
@@ -50619,7 +50627,7 @@
         <v>92</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>1314.29</v>
+        <v>306.67</v>
       </c>
       <c r="S60" s="5" t="n">
         <v>30</v>
@@ -50631,7 +50639,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -50648,17 +50656,17 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>C25A110</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -50668,12 +50676,12 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -50692,7 +50700,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="5" t="n">
         <v>0</v>
@@ -50701,16 +50709,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S61" s="5" t="n">
         <v>30</v>
@@ -50722,12 +50730,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -50739,17 +50747,17 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -50783,7 +50791,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>0</v>
@@ -50792,19 +50800,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="R62" s="4" t="n">
-        <v>106.67</v>
+        <v>306.67</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T62" s="6" t="inlineStr">
         <is>
@@ -50813,12 +50821,12 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="4" t="inlineStr">
@@ -50830,17 +50838,17 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -50850,12 +50858,12 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -50874,7 +50882,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="M63" s="5" t="n">
         <v>0</v>
@@ -50883,7 +50891,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>92</v>
@@ -50904,7 +50912,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -50921,17 +50929,17 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
+          <t>FICUS ELASTICA MEZCLA</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -50941,12 +50949,12 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -50965,7 +50973,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M64" s="5" t="n">
         <v>0</v>
@@ -50974,16 +50982,16 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S64" s="5" t="n">
         <v>30</v>
@@ -50995,12 +51003,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -51012,17 +51020,17 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
@@ -51032,12 +51040,12 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -51056,7 +51064,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M65" s="5" t="n">
         <v>0</v>
@@ -51065,16 +51073,16 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S65" s="5" t="n">
         <v>30</v>
@@ -51086,12 +51094,12 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
@@ -51103,32 +51111,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>M15COLG</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr"/>
+      <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -51162,13 +51162,13 @@
         <v>92</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T66" s="6" t="inlineStr">
         <is>
@@ -51177,12 +51177,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -51194,17 +51194,17 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>C23A50</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
@@ -51268,7 +51268,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_INTERIOR_P2_2025.xlsx
@@ -3932,17 +3932,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>1201090003</t>
+          <t>1201090031</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>PHAL 1 TAK ROYAL BLUE</t>
+          <t>PHALAENOPSIS 1SP ROYAL PURPLE</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -3988,7 +3988,7 @@
         <v>2</v>
       </c>
       <c r="P39" s="3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="3" t="n">
         <v>43</v>
@@ -4023,17 +4023,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>1201090031</t>
+          <t>1201090003</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>PHALAENOPSIS 1SP ROYAL PURPLE</t>
+          <t>PHAL 1 TAK ROYAL BLUE</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -4079,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="P40" s="3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="3" t="n">
         <v>43</v>
@@ -14266,17 +14266,17 @@
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>1303050001</t>
+          <t>1102010011</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>VRIESEA ERA</t>
+          <t>FICUS ELASTICA ABIDJAN</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>M55A15</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
@@ -14286,88 +14286,88 @@
       </c>
       <c r="E153" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F153" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G153" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H153" s="3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I153" s="3" t="n">
-        <v>84</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="J153" s="3" t="n">
-        <v>44.2</v>
+        <v>56.89</v>
       </c>
       <c r="K153" s="3" t="n">
-        <v>69.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="L153" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M153" s="4" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="O153" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="Q153" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R153" s="3" t="n">
-        <v>613.33</v>
+        <v>0</v>
       </c>
       <c r="S153" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T153" s="5" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T153" s="7" t="inlineStr">
+        <is>
+          <t>Cero</t>
         </is>
       </c>
       <c r="U153" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
         </is>
       </c>
       <c r="V153" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13D</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>1102010011</t>
+          <t>1303050001</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA ABIDJAN</t>
+          <t>VRIESEA ERA</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M55A15</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
@@ -14377,71 +14377,71 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F154" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G154" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H154" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I154" s="3" t="n">
-        <v>97.95999999999999</v>
+        <v>84</v>
       </c>
       <c r="J154" s="3" t="n">
-        <v>56.89</v>
+        <v>44.2</v>
       </c>
       <c r="K154" s="3" t="n">
-        <v>100</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="L154" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M154" s="4" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="N154" s="4" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O154" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P154" s="3" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="Q154" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R154" s="3" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S154" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T154" s="7" t="inlineStr">
-        <is>
-          <t>Cero</t>
+        <v>30</v>
+      </c>
+      <c r="T154" s="5" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U154" s="2" t="inlineStr">
         <is>
-          <t>EVALUAR CONTINUIDAD: Producto agotado con demanda decreciente. Reducir compras 30% próxima temporada. Evaluar continuidad en catálogo.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V154" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W154" s="3" t="inlineStr">
         <is>
-          <t>13D</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -16870,17 +16870,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>1105050024</t>
+          <t>1306150001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>PHILODENDRON RING OF FIRE</t>
+          <t>GERBERA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M14A25</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -16890,49 +16890,49 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>39.96</v>
+        <v>64.87</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>9.81</v>
+        <v>32.45</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>28.57</v>
+        <v>81.25</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>30</v>
@@ -16944,34 +16944,34 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1306150001</t>
+          <t>1105050024</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>GERBERA</t>
+          <t>PHILODENDRON RING OF FIRE</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>M14A25</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -16981,49 +16981,49 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>64.87</v>
+        <v>39.96</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>32.45</v>
+        <v>9.81</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>81.25</v>
+        <v>28.57</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>30</v>
@@ -17035,17 +17035,17 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>INVESTIGAR + REDISEÑAR: Analizar causa de baja rotación. Mantener stock mínimo. Implementar acciones de venta. Reducir compras 25%.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20767,17 +20767,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>1108140017</t>
+          <t>1105050020</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>HOYA KRIMSON QUEEN</t>
+          <t>PHILODENDRON BRASIL</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M15A25</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -20802,13 +20802,13 @@
         <v>5</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>53.25</v>
+        <v>49.95</v>
       </c>
       <c r="J46" s="3" t="n">
-        <v>28.16</v>
+        <v>25.16</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
         <v>0</v>
@@ -20820,55 +20820,55 @@
         <v>2.4</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="P46" s="3" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T46" s="5" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T46" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>1105050020</t>
+          <t>1108140017</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>PHILODENDRON BRASIL</t>
+          <t>HOYA KRIMSON QUEEN</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>M15A25</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -20893,13 +20893,13 @@
         <v>5</v>
       </c>
       <c r="I47" s="3" t="n">
-        <v>49.95</v>
+        <v>53.25</v>
       </c>
       <c r="J47" s="3" t="n">
-        <v>25.16</v>
+        <v>28.16</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L47" s="3" t="n">
         <v>0</v>
@@ -20911,38 +20911,38 @@
         <v>2.4</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="P47" s="3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24308,17 +24308,17 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>1504010004</t>
+          <t>1106130007</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>EPIPHYLLUM MIX</t>
+          <t>PLANTA VERDE MIX</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M105A15</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
@@ -24328,88 +24328,88 @@
       </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I85" s="3" t="n">
-        <v>43.47</v>
+        <v>79.56</v>
       </c>
       <c r="J85" s="3" t="n">
-        <v>22.48</v>
+        <v>55.29</v>
       </c>
       <c r="K85" s="3" t="n">
-        <v>60</v>
+        <v>63.16</v>
       </c>
       <c r="L85" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M85" s="4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N85" s="4" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="Q85" s="3" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="R85" s="3" t="n">
-        <v>306.67</v>
+        <v>140</v>
       </c>
       <c r="S85" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T85" s="5" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T85" s="6" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 19/04/2025</t>
         </is>
       </c>
       <c r="W85" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>1106130007</t>
+          <t>1504010004</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX</t>
+          <t>EPIPHYLLUM MIX</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>M105A15</t>
+          <t>M12A25</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -24419,71 +24419,71 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I86" s="3" t="n">
-        <v>79.56</v>
+        <v>43.47</v>
       </c>
       <c r="J86" s="3" t="n">
-        <v>55.29</v>
+        <v>22.48</v>
       </c>
       <c r="K86" s="3" t="n">
-        <v>63.16</v>
+        <v>60</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N86" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O86" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="N86" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O86" s="3" t="n">
-        <v>7</v>
-      </c>
       <c r="P86" s="3" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="3" t="n">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="R86" s="3" t="n">
-        <v>140</v>
+        <v>306.67</v>
       </c>
       <c r="S86" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T86" s="6" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T86" s="5" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V86" s="3" t="inlineStr">
         <is>
-          <t>Compra 19/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -26476,17 +26476,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>1105050018</t>
+          <t>1502080006</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>PHILODENDRON SQUAMIFERUM</t>
+          <t>PORTULACARIA MIX</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>M14A40</t>
+          <t>M11A20</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -26496,88 +26496,88 @@
       </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I109" s="3" t="n">
-        <v>38.96</v>
+        <v>43.89</v>
       </c>
       <c r="J109" s="3" t="n">
-        <v>20.24</v>
+        <v>24.72</v>
       </c>
       <c r="K109" s="3" t="n">
-        <v>37.5</v>
+        <v>36.67</v>
       </c>
       <c r="L109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M109" s="4" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="O109" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P109" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="P109" s="3" t="n">
-        <v>9</v>
-      </c>
       <c r="Q109" s="3" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="R109" s="3" t="n">
-        <v>106.67</v>
+        <v>196.67</v>
       </c>
       <c r="S109" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T109" s="6" t="inlineStr">
-        <is>
-          <t>Alto</t>
+        <v>30</v>
+      </c>
+      <c r="T109" s="5" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U109" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V109" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W109" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>1502080006</t>
+          <t>1104020006</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>PORTULACARIA MIX</t>
+          <t>ORNITHOGALUM DUBIUM</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>M11A20</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -26587,49 +26587,49 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G110" s="3" t="n">
         <v>30</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I110" s="3" t="n">
-        <v>43.89</v>
+        <v>35.7</v>
       </c>
       <c r="J110" s="3" t="n">
-        <v>24.72</v>
+        <v>17.27</v>
       </c>
       <c r="K110" s="3" t="n">
-        <v>36.67</v>
+        <v>75</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110" s="4" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>5.4</v>
+        <v>2.9</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P110" s="3" t="n">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="Q110" s="3" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R110" s="3" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S110" s="4" t="n">
         <v>30</v>
@@ -26641,34 +26641,34 @@
       </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
         </is>
       </c>
       <c r="V110" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W110" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>1104020006</t>
+          <t>1105050018</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>ORNITHOGALUM DUBIUM</t>
+          <t>PHILODENDRON SQUAMIFERUM</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M14A40</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
@@ -26690,59 +26690,59 @@
         <v>30</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I111" s="3" t="n">
-        <v>35.7</v>
+        <v>38.96</v>
       </c>
       <c r="J111" s="3" t="n">
-        <v>17.27</v>
+        <v>20.24</v>
       </c>
       <c r="K111" s="3" t="n">
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="L111" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P111" s="3" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="Q111" s="3" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R111" s="3" t="n">
-        <v>306.67</v>
+        <v>106.67</v>
       </c>
       <c r="S111" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T111" s="5" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>20</v>
+      </c>
+      <c r="T111" s="6" t="inlineStr">
+        <is>
+          <t>Alto</t>
         </is>
       </c>
       <c r="U111" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO CORRECTIVO + MONITOREO: Aplicar descuento 30% a stock actual para renovar inventario. Mantener nivel de compras actual.</t>
+          <t>DESCUENTO MODERADO + REDUCCIÓN COMPRAS: Aplicar descuento 20% para dinamizar ventas. Reducir compras 35% próxima temporada. Stock objetivo: 1 unidades. Monitorear.</t>
         </is>
       </c>
       <c r="V111" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W111" s="3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -27659,12 +27659,12 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>1602010062</t>
+          <t>1602010088</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>COMPOSICION TAZA PEQUEÑA</t>
+          <t>COMPOSICION CARRETA</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr"/>
@@ -27686,16 +27686,16 @@
         <v>1</v>
       </c>
       <c r="I122" s="3" t="n">
-        <v>39.95</v>
+        <v>34.95</v>
       </c>
       <c r="J122" s="3" t="n">
-        <v>22.32</v>
+        <v>17.77</v>
       </c>
       <c r="K122" s="3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L122" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="4" t="n">
         <v>0.2</v>
@@ -27704,50 +27704,50 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P122" s="3" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q122" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R122" s="3" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S122" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T122" s="7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>30</v>
+      </c>
+      <c r="T122" s="5" t="inlineStr">
+        <is>
+          <t>Crítico</t>
         </is>
       </c>
       <c r="U122" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
         </is>
       </c>
       <c r="V122" s="3" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W122" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>1602010088</t>
+          <t>1602010062</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>COMPOSICION CARRETA</t>
+          <t>COMPOSICION TAZA PEQUEÑA</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr"/>
@@ -27769,16 +27769,16 @@
         <v>1</v>
       </c>
       <c r="I123" s="3" t="n">
-        <v>34.95</v>
+        <v>39.95</v>
       </c>
       <c r="J123" s="3" t="n">
-        <v>17.77</v>
+        <v>22.32</v>
       </c>
       <c r="K123" s="3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L123" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123" s="4" t="n">
         <v>0.2</v>
@@ -27787,38 +27787,38 @@
         <v>0.5</v>
       </c>
       <c r="O123" s="3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P123" s="3" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q123" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R123" s="3" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S123" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="T123" s="5" t="inlineStr">
-        <is>
-          <t>Crítico</t>
+        <v>0</v>
+      </c>
+      <c r="T123" s="7" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U123" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO MÁXIMO + REDUCCIÓN COMPRAS: Aplicar descuento 30% inmediato. Reducir compras 50% próxima temporada. Stock objetivo: 1 unidades. Prioridad alta.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -1 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V123" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W123" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -31240,12 +31240,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>1501060012</t>
+          <t>1501060011</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CEROPEGIA WOODII</t>
+          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -31296,7 +31296,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="3" t="n">
         <v>59</v>
@@ -31331,12 +31331,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1501060011</t>
+          <t>1501060012</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ADROMISCHUS MARIANAE HERREI GREEN</t>
+          <t>CEROPEGIA WOODII</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -31387,7 +31387,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="3" t="n">
         <v>59</v>
@@ -37048,17 +37048,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1106020003</t>
+          <t>1105070006</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>ALOCASIA WENTII</t>
+          <t>SYNGONIUM MOTTLED</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>M6A15</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -37080,37 +37080,37 @@
         <v>30</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" s="3" t="n">
-        <v>17.95</v>
+        <v>17</v>
       </c>
       <c r="J69" s="3" t="n">
-        <v>9.859999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="K69" s="3" t="n">
         <v>16.67</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M69" s="4" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P69" s="3" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="Q69" s="3" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="R69" s="3" t="n">
-        <v>246.67</v>
+        <v>306.67</v>
       </c>
       <c r="S69" s="4" t="n">
         <v>30</v>
@@ -37122,12 +37122,12 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/03/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W69" s="3" t="inlineStr">
@@ -37139,17 +37139,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1105070006</t>
+          <t>1106020003</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>SYNGONIUM MOTTLED</t>
+          <t>ALOCASIA WENTII</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -37171,37 +37171,37 @@
         <v>30</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3" t="n">
-        <v>17</v>
+        <v>17.95</v>
       </c>
       <c r="J70" s="3" t="n">
-        <v>8.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K70" s="3" t="n">
         <v>16.67</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M70" s="4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P70" s="3" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q70" s="3" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="R70" s="3" t="n">
-        <v>306.67</v>
+        <v>246.67</v>
       </c>
       <c r="S70" s="4" t="n">
         <v>30</v>
@@ -37213,12 +37213,12 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/03/2025</t>
         </is>
       </c>
       <c r="W70" s="3" t="inlineStr">
@@ -38852,17 +38852,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>1101030013</t>
+          <t>1506010001</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA 2 TRONCOS</t>
+          <t>SANSEVIERIA</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>C17A245</t>
+          <t>M14A50</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -38872,12 +38872,12 @@
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G89" s="3" t="n">
@@ -38887,10 +38887,10 @@
         <v>1</v>
       </c>
       <c r="I89" s="3" t="n">
-        <v>14.95</v>
+        <v>16.95</v>
       </c>
       <c r="J89" s="3" t="n">
-        <v>8.279999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="K89" s="3" t="n">
         <v>0</v>
@@ -38908,7 +38908,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q89" s="3" t="n">
         <v>0</v>
@@ -38943,17 +38943,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>1506010001</t>
+          <t>1101030013</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>SANSEVIERIA</t>
+          <t>DRACAENA MARGINATA 2 TRONCOS</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>M14A50</t>
+          <t>C17A245</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -38963,12 +38963,12 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
@@ -38978,10 +38978,10 @@
         <v>1</v>
       </c>
       <c r="I90" s="3" t="n">
-        <v>16.95</v>
+        <v>14.95</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>10.1</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K90" s="3" t="n">
         <v>0</v>
@@ -38999,7 +38999,7 @@
         <v>-1</v>
       </c>
       <c r="P90" s="3" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q90" s="3" t="n">
         <v>0</v>
@@ -42666,12 +42666,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>1501070011</t>
+          <t>1502030002</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
+          <t>EUPHORBIA LACTEA CRISTATA</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
@@ -42722,7 +42722,7 @@
         <v>6</v>
       </c>
       <c r="P131" s="3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="3" t="n">
         <v>59</v>
@@ -42757,12 +42757,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>1502030002</t>
+          <t>1501060008</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>EUPHORBIA LACTEA CRISTATA</t>
+          <t>CRASSULA TECTA</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -42813,7 +42813,7 @@
         <v>6</v>
       </c>
       <c r="P132" s="3" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="Q132" s="3" t="n">
         <v>59</v>
@@ -42848,12 +42848,12 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>1501060008</t>
+          <t>1501070011</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>CRASSULA TECTA</t>
+          <t>TRICHOCEREUS BRIDGESI MONSTRUOSO</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
@@ -42904,7 +42904,7 @@
         <v>6</v>
       </c>
       <c r="P133" s="3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q133" s="3" t="n">
         <v>59</v>
@@ -43212,17 +43212,17 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>1502010005</t>
+          <t>1305170001</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>ALOE TIKI TAHI</t>
+          <t>TILLANDSIA</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>M9A15</t>
+          <t>M7A20</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
@@ -43232,43 +43232,43 @@
       </c>
       <c r="E137" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G137" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H137" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" s="3" t="n">
-        <v>6.98</v>
+        <v>5.99</v>
       </c>
       <c r="J137" s="3" t="n">
-        <v>3.93</v>
+        <v>3.03</v>
       </c>
       <c r="K137" s="3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L137" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M137" s="4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N137" s="4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="O137" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="P137" s="3" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="Q137" s="3" t="n">
         <v>0</v>
@@ -43303,17 +43303,17 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>1305170001</t>
+          <t>1502010005</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>TILLANDSIA</t>
+          <t>ALOE TIKI TAHI</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>M7A20</t>
+          <t>M9A15</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
@@ -43323,43 +43323,43 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F138" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G138" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H138" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J138" s="3" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="L138" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N138" s="4" t="n">
         <v>1</v>
-      </c>
-      <c r="I138" s="3" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J138" s="3" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M138" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N138" s="4" t="n">
-        <v>0.2</v>
       </c>
       <c r="O138" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="Q138" s="3" t="n">
         <v>0</v>
@@ -45377,17 +45377,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1201010000</t>
+          <t>1102010002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>CAMBRIA 2SP + CERAMICA</t>
+          <t>FICUS BENJAMINA EXOTICA</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>C22A150</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -45397,16 +45397,16 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
@@ -45421,7 +45421,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>0</v>
@@ -45430,19 +45430,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q2" s="3" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>613.33</v>
+        <v>93.33</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
@@ -45451,12 +45451,12 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr">
@@ -45478,7 +45478,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>M9A25</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -45512,7 +45512,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -45521,7 +45521,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>92</v>
@@ -45542,7 +45542,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -45559,17 +45559,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>1201090014</t>
+          <t>1304050000</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CAMBRIA 1 TAK</t>
+          <t>CARNIVORAS MIX</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -45579,12 +45579,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -45603,7 +45603,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0</v>
@@ -45612,16 +45612,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>613.33</v>
+        <v>400</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>30</v>
@@ -45633,12 +45633,12 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W4" s="3" t="inlineStr">
@@ -45741,17 +45741,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>1201120000</t>
+          <t>1106020032</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>BRASSIA 1SP</t>
+          <t>ALOCASIA BLACK JACK</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>M12A55</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -45761,16 +45761,16 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>0</v>
@@ -45785,7 +45785,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>0</v>
@@ -45794,7 +45794,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>92</v>
@@ -45803,7 +45803,7 @@
         <v>92</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S6" s="4" t="n">
         <v>30</v>
@@ -45815,7 +45815,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -45832,17 +45832,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>1101010001</t>
+          <t>1501020001</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>BEAUCARNEA TRONCO</t>
+          <t>HAWORTHIA FASCIATA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>C22A50</t>
+          <t>M85A20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -45852,12 +45852,12 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -45876,7 +45876,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>0</v>
@@ -45885,7 +45885,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>92</v>
@@ -45906,7 +45906,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -45923,32 +45923,24 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1602010080</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>M9A25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -45967,7 +45959,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
@@ -45976,7 +45968,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>92</v>
@@ -45997,7 +45989,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 32.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -46014,24 +46006,16 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1602010096</t>
+          <t>1602010067</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT KUEGO</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT IZUMI</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -46073,10 +46057,10 @@
         <v>92</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>176.67</v>
+        <v>306.67</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>30</v>
@@ -46088,12 +46072,12 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W9" s="3" t="inlineStr">
@@ -46105,17 +46089,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>M15A30</t>
+          <t>M13A50</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -46149,7 +46133,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>0</v>
@@ -46158,16 +46142,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>613.33</v>
+        <v>213.33</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>30</v>
@@ -46179,12 +46163,12 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W10" s="3" t="inlineStr">
@@ -46196,17 +46180,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>1306270025</t>
+          <t>1102010001</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>PLUMERIA HAWAIIAN MIX</t>
+          <t>FICUS BENJAMINA ESPALDERA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>C17A80</t>
+          <t>C25A110</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -46216,16 +46200,16 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>0</v>
@@ -46240,7 +46224,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>0</v>
@@ -46249,19 +46233,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R11" s="3" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T11" s="5" t="inlineStr">
         <is>
@@ -46270,12 +46254,12 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="3" t="inlineStr">
@@ -46287,24 +46271,32 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>1602010081</t>
+          <t>1501050004</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY BAO T-M</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="2" t="inlineStr"/>
+          <t>OPUNTIA RETICULATA COBRA</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>M65A10</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -46323,7 +46315,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -46332,16 +46324,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>306.67</v>
+        <v>196.67</v>
       </c>
       <c r="S12" s="4" t="n">
         <v>30</v>
@@ -46353,12 +46345,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -46370,16 +46362,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>1601010005</t>
+          <t>1602010086</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
+          <t>COMPOSICION PRIMULA + BULBOS</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>C19A20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -46406,7 +46406,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
@@ -46415,7 +46415,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>92</v>
@@ -46436,7 +46436,7 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -46453,28 +46453,36 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>1603010001</t>
+          <t>1201090014</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CESTA ASAS BLANCA</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
+          <t>CAMBRIA 1 TAK</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>M12A50</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H14" s="3" t="n">
         <v>0</v>
@@ -46489,7 +46497,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -46498,19 +46506,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q14" s="3" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="R14" s="3" t="n">
-        <v>96.67</v>
+        <v>613.33</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T14" s="5" t="inlineStr">
         <is>
@@ -46519,12 +46527,12 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="3" t="inlineStr">
@@ -46536,24 +46544,32 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>1602010098</t>
+          <t>1101010001</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>COMPOSICION CESTA CUADRADA</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
-      <c r="D15" s="2" t="inlineStr"/>
+          <t>BEAUCARNEA TRONCO</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>C22A50</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -46572,7 +46588,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -46581,19 +46597,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>110</v>
+        <v>306.67</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
@@ -46602,12 +46618,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -46619,32 +46635,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>1103010001</t>
+          <t>1602010073</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ARECA LUTESCENS</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>C32A200</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -46663,7 +46671,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
@@ -46672,19 +46680,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>60</v>
+        <v>306.67</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T16" s="5" t="inlineStr">
         <is>
@@ -46693,12 +46701,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -46710,32 +46718,24 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>1106130018</t>
+          <t>1602010098</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>C23A50</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPOSICION CESTA CUADRADA</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -46754,7 +46754,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -46763,19 +46763,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R17" s="3" t="n">
-        <v>306.67</v>
+        <v>110</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T17" s="5" t="inlineStr">
         <is>
@@ -46784,12 +46784,12 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W17" s="3" t="inlineStr">
@@ -46801,36 +46801,28 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>1306210008</t>
+          <t>1601010004</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>LILIUM ROSA</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>M13A40</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="n">
         <v>0</v>
@@ -46845,7 +46837,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -46854,7 +46846,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>92</v>
@@ -46863,7 +46855,7 @@
         <v>92</v>
       </c>
       <c r="R18" s="3" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S18" s="4" t="n">
         <v>30</v>
@@ -46875,7 +46867,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -46892,16 +46884,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>1602010067</t>
+          <t>1602010072</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT IZUMI</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t>TERRARIO ECLOZ CHIC I</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -46958,7 +46958,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -46975,17 +46975,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>1106130020</t>
+          <t>1306270025</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>PLANTA VERDE MIX EN COCO</t>
+          <t>PLUMERIA HAWAIIAN MIX</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>M9COLG</t>
+          <t>C17A80</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -46995,16 +46995,16 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>0</v>
@@ -47019,7 +47019,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>0</v>
@@ -47028,16 +47028,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q20" s="3" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>106.67</v>
+        <v>113.33</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>20</v>
@@ -47054,7 +47054,7 @@
       </c>
       <c r="V20" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W20" s="3" t="inlineStr">
@@ -47066,17 +47066,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>1602010094</t>
+          <t>1503040000</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+          <t>MANGAVE</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C17A30</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -47086,12 +47086,12 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -47110,7 +47110,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>0</v>
@@ -47119,19 +47119,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>176.67</v>
+        <v>93.33</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T21" s="5" t="inlineStr">
         <is>
@@ -47140,12 +47140,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -47157,17 +47157,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>M12A50</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -47177,16 +47177,16 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H22" s="3" t="n">
         <v>0</v>
@@ -47201,7 +47201,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>0</v>
@@ -47210,19 +47210,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q22" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R22" s="3" t="n">
-        <v>113.33</v>
+        <v>306.67</v>
       </c>
       <c r="S22" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T22" s="5" t="inlineStr">
         <is>
@@ -47231,12 +47231,12 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W22" s="3" t="inlineStr">
@@ -47248,17 +47248,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>1106130019</t>
+          <t>1306210008</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>STREPTOCARPUS PRETTY TURTLE</t>
+          <t>LILIUM ROSA</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>M13A25</t>
+          <t>M13A40</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -47268,16 +47268,16 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H23" s="3" t="n">
         <v>0</v>
@@ -47292,7 +47292,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
@@ -47301,7 +47301,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>92</v>
@@ -47310,7 +47310,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="3" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>30</v>
@@ -47322,7 +47322,7 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -47339,17 +47339,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1101040001</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>PACHIRA AQUATICA</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>M6A20</t>
+          <t>C17A70</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -47359,16 +47359,16 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="n">
         <v>0</v>
@@ -47383,7 +47383,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>0</v>
@@ -47392,7 +47392,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>92</v>
@@ -47401,7 +47401,7 @@
         <v>92</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S24" s="4" t="n">
         <v>30</v>
@@ -47413,7 +47413,7 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -47430,17 +47430,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>1105030003</t>
+          <t>1501060016</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>MUSA DWARF</t>
+          <t>PACHYPODIUM LEMEREI</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>C20A60</t>
+          <t>C22A40</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -47450,12 +47450,12 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -47489,13 +47489,13 @@
         <v>92</v>
       </c>
       <c r="Q25" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R25" s="3" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S25" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T25" s="5" t="inlineStr">
         <is>
@@ -47504,12 +47504,12 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W25" s="3" t="inlineStr">
@@ -47521,17 +47521,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>1305200004</t>
+          <t>1306200005</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>OXALIS BRASILIENSIS</t>
+          <t>KALANCHOE MIX + CUBREMACETA</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>M12A25</t>
+          <t>M105A20</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -47565,7 +47565,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>0</v>
@@ -47574,16 +47574,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q26" s="3" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R26" s="3" t="n">
-        <v>400</v>
+        <v>613.33</v>
       </c>
       <c r="S26" s="4" t="n">
         <v>30</v>
@@ -47595,12 +47595,12 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="3" t="inlineStr">
@@ -47612,17 +47612,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>1501060016</t>
+          <t>1105030003</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>PACHYPODIUM LEMEREI</t>
+          <t>MUSA DWARF</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>C22A40</t>
+          <t>C20A60</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -47632,12 +47632,12 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -47671,13 +47671,13 @@
         <v>92</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>0</v>
+        <v>306.67</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T27" s="5" t="inlineStr">
         <is>
@@ -47686,12 +47686,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 20.1€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -47703,24 +47703,32 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>1601010000</t>
+          <t>1102010014</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
+          <t>FICUS ELASTICA MEZCLA</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>M6A15</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -47739,7 +47747,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>0</v>
@@ -47748,7 +47756,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>92</v>
@@ -47769,7 +47777,7 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
@@ -47786,28 +47794,36 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>1602010073</t>
+          <t>1201010000</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ MINI MONDE NATURE II T-S</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr"/>
-      <c r="D29" s="2" t="inlineStr"/>
+          <t>CAMBRIA 2SP + CERAMICA</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>M12A45</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>0</v>
@@ -47822,7 +47838,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>0</v>
@@ -47831,7 +47847,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>92</v>
@@ -47840,7 +47856,7 @@
         <v>92</v>
       </c>
       <c r="R29" s="3" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S29" s="4" t="n">
         <v>30</v>
@@ -47852,7 +47868,7 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.96€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
@@ -47869,17 +47885,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>1102010002</t>
+          <t>1502010001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA EXOTICA</t>
+          <t>ALOE VERA</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>C22A150</t>
+          <t>C25A40</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -47889,12 +47905,12 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
@@ -47928,13 +47944,13 @@
         <v>92</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R30" s="3" t="n">
-        <v>93.33</v>
+        <v>0</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T30" s="5" t="inlineStr">
         <is>
@@ -47943,12 +47959,12 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W30" s="3" t="inlineStr">
@@ -47960,17 +47976,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>1503040000</t>
+          <t>1602010096</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>MANGAVE</t>
+          <t>TERRARIO VIVANT KUEGO</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>C17A30</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -47980,12 +47996,12 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -48004,7 +48020,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>0</v>
@@ -48013,19 +48029,19 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q31" s="3" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="R31" s="3" t="n">
-        <v>93.33</v>
+        <v>176.67</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T31" s="5" t="inlineStr">
         <is>
@@ -48034,12 +48050,12 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W31" s="3" t="inlineStr">
@@ -48051,17 +48067,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>1306200005</t>
+          <t>1501060015</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE MIX + CUBREMACETA</t>
+          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>M105A20</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -48071,16 +48087,16 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H32" s="3" t="n">
         <v>0</v>
@@ -48095,7 +48111,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M32" s="4" t="n">
         <v>0</v>
@@ -48104,16 +48120,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q32" s="3" t="n">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="R32" s="3" t="n">
-        <v>613.33</v>
+        <v>196.67</v>
       </c>
       <c r="S32" s="4" t="n">
         <v>30</v>
@@ -48125,12 +48141,12 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 1.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W32" s="3" t="inlineStr">
@@ -48142,17 +48158,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>1502010001</t>
+          <t>1201060002</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>ALOE VERA</t>
+          <t>MILTONIA 1SP</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>C25A40</t>
+          <t>M12A40</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -48162,16 +48178,16 @@
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H33" s="3" t="n">
         <v>0</v>
@@ -48186,7 +48202,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
@@ -48195,19 +48211,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R33" s="3" t="n">
-        <v>0</v>
+        <v>113.33</v>
       </c>
       <c r="S33" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T33" s="5" t="inlineStr">
         <is>
@@ -48216,12 +48232,12 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W33" s="3" t="inlineStr">
@@ -48233,36 +48249,28 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>1701080002</t>
+          <t>1403010001</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>FICUS GINSENG + CERAMICA</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>M15A40</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOUQUET 1 ROSA</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>BONSAIS</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H34" s="3" t="n">
         <v>0</v>
@@ -48277,7 +48285,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M34" s="4" t="n">
         <v>0</v>
@@ -48286,19 +48294,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q34" s="3" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="R34" s="3" t="n">
-        <v>56.67</v>
+        <v>1314.29</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T34" s="5" t="inlineStr">
         <is>
@@ -48307,12 +48315,12 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="3" t="inlineStr">
@@ -48324,17 +48332,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>1501020001</t>
+          <t>1306190002</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>HAWORTHIA FASCIATA</t>
+          <t>STEPHANOTIS PIRAMIDE</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>C20A90</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -48344,16 +48352,16 @@
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H35" s="3" t="n">
         <v>0</v>
@@ -48368,7 +48376,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
@@ -48377,19 +48385,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q35" s="3" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R35" s="3" t="n">
-        <v>306.67</v>
+        <v>120</v>
       </c>
       <c r="S35" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T35" s="5" t="inlineStr">
         <is>
@@ -48398,12 +48406,12 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W35" s="3" t="inlineStr">
@@ -48415,28 +48423,28 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>1601010004</t>
+          <t>1403010000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>MACETA 3 PATAS 15,5X13CM CON TALADRO (NO VENTA)</t>
+          <t>RAMO BOUQUET 5 ROSAS</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>FLOR CORTADA</t>
         </is>
       </c>
       <c r="G36" s="3" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H36" s="3" t="n">
         <v>0</v>
@@ -48451,7 +48459,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M36" s="4" t="n">
         <v>0</v>
@@ -48460,7 +48468,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>92</v>
@@ -48469,7 +48477,7 @@
         <v>92</v>
       </c>
       <c r="R36" s="3" t="n">
-        <v>306.67</v>
+        <v>1314.29</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>30</v>
@@ -48481,7 +48489,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
@@ -48498,17 +48506,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>1106020032</t>
+          <t>1306270009</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>ALOCASIA BLACK JACK</t>
+          <t>GLORIOSA</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>M12A40</t>
+          <t>C21A100</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -48518,16 +48526,16 @@
       </c>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H37" s="3" t="n">
         <v>0</v>
@@ -48542,7 +48550,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M37" s="4" t="n">
         <v>0</v>
@@ -48551,19 +48559,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T37" s="5" t="inlineStr">
         <is>
@@ -48572,12 +48580,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 53.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -48589,17 +48597,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>1201080000</t>
+          <t>1201120000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
+          <t>BRASSIA 1SP</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>M9A35</t>
+          <t>M12A55</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -48633,7 +48641,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -48642,7 +48650,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>92</v>
@@ -48663,7 +48671,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.39€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
@@ -48680,17 +48688,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>1501050004</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>OPUNTIA RETICULATA COBRA</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M15A30</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -48700,16 +48708,16 @@
       </c>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3" t="n">
         <v>0</v>
@@ -48724,7 +48732,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M39" s="4" t="n">
         <v>0</v>
@@ -48733,16 +48741,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>30</v>
@@ -48754,12 +48762,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -48771,16 +48779,24 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>1602010082</t>
+          <t>1602010094</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+          <t>TERRARIO VIVANT GREEN TOWER GINSENG</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
           <t>16</t>
@@ -48822,10 +48838,10 @@
         <v>92</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>306.67</v>
+        <v>176.67</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>30</v>
@@ -48837,12 +48853,12 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
@@ -48854,17 +48870,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>1304050000</t>
+          <t>1104020001</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>CARNIVORAS MIX</t>
+          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>M85A20</t>
+          <t>M12A30</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -48874,16 +48890,16 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>0</v>
@@ -48898,7 +48914,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -48907,16 +48923,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q41" s="3" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="R41" s="3" t="n">
-        <v>400</v>
+        <v>306.67</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>30</v>
@@ -48928,12 +48944,12 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
         <is>
-          <t>Compra 01/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="3" t="inlineStr">
@@ -48945,17 +48961,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>1306190002</t>
+          <t>1106130019</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>STEPHANOTIS PIRAMIDE</t>
+          <t>STREPTOCARPUS PRETTY TURTLE</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>C20A90</t>
+          <t>M13A25</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -48965,16 +48981,16 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>0</v>
@@ -49004,13 +49020,13 @@
         <v>92</v>
       </c>
       <c r="Q42" s="3" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>120</v>
+        <v>306.67</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T42" s="5" t="inlineStr">
         <is>
@@ -49019,12 +49035,12 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 25.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="3" t="inlineStr">
@@ -49036,17 +49052,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>1102010014</t>
+          <t>1306090001</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA MEZCLA</t>
+          <t>CURCUMA MIX</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>M6A15</t>
+          <t>M12A50</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -49056,16 +49072,16 @@
       </c>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>0</v>
@@ -49080,7 +49096,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M43" s="4" t="n">
         <v>0</v>
@@ -49089,19 +49105,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R43" s="3" t="n">
-        <v>306.67</v>
+        <v>113.33</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T43" s="5" t="inlineStr">
         <is>
@@ -49110,12 +49126,12 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 3.95€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W43" s="3" t="inlineStr">
@@ -49127,28 +49143,36 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>1403010000</t>
+          <t>1701080002</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>RAMO BOUQUET 5 ROSAS</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
+          <t>FICUS GINSENG + CERAMICA</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>M15A40</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>BONSAIS</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H44" s="3" t="n">
         <v>0</v>
@@ -49163,7 +49187,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M44" s="4" t="n">
         <v>0</v>
@@ -49172,19 +49196,19 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="R44" s="3" t="n">
-        <v>1314.29</v>
+        <v>56.67</v>
       </c>
       <c r="S44" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T44" s="5" t="inlineStr">
         <is>
@@ -49193,12 +49217,12 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 38.36€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/05/2025</t>
         </is>
       </c>
       <c r="W44" s="3" t="inlineStr">
@@ -49210,28 +49234,36 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>1403010001</t>
+          <t>1305200004</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>BOUQUET 1 ROSA</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr"/>
-      <c r="D45" s="2" t="inlineStr"/>
+          <t>OXALIS BRASILIENSIS</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>M12A25</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>FLOR CORTADA</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>0</v>
@@ -49246,7 +49278,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M45" s="4" t="n">
         <v>0</v>
@@ -49255,16 +49287,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q45" s="3" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="R45" s="3" t="n">
-        <v>1314.29</v>
+        <v>400</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>30</v>
@@ -49276,12 +49308,12 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 01/04/2025</t>
         </is>
       </c>
       <c r="W45" s="3" t="inlineStr">
@@ -49293,32 +49325,24 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>1501060015</t>
+          <t>1601010002</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>DOLICHOTHELE LONGIMAMMA MONSTRUOSA</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>M65A10</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
@@ -49337,7 +49361,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M46" s="4" t="n">
         <v>0</v>
@@ -49346,16 +49370,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>196.67</v>
+        <v>306.67</v>
       </c>
       <c r="S46" s="4" t="n">
         <v>30</v>
@@ -49367,12 +49391,12 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -49384,17 +49408,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>1303050002</t>
+          <t>1103010001</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>VRIESEA MADONNA</t>
+          <t>ARECA LUTESCENS</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>M12A45</t>
+          <t>C32A200</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -49404,16 +49428,16 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H47" s="3" t="n">
         <v>0</v>
@@ -49428,7 +49452,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" s="4" t="n">
         <v>0</v>
@@ -49437,19 +49461,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q47" s="3" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="R47" s="3" t="n">
-        <v>613.33</v>
+        <v>60</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T47" s="5" t="inlineStr">
         <is>
@@ -49458,12 +49482,12 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W47" s="3" t="inlineStr">
@@ -49475,12 +49499,12 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>1602010080</t>
+          <t>1602010082</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT MIA CLASSIC PACHIRA T-M</t>
+          <t>TERRARIO VIVANT SPICY GINSENG T-M</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr"/>
@@ -49511,7 +49535,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>0</v>
@@ -49520,7 +49544,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>92</v>
@@ -49541,7 +49565,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 31.51€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -49558,17 +49582,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>1602010093</t>
+          <t>1106020019</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
+          <t>ALOCASIA BAGINDA</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M14A35</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -49578,12 +49602,12 @@
       </c>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -49602,7 +49626,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>0</v>
@@ -49611,19 +49635,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q49" s="3" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="R49" s="3" t="n">
-        <v>176.67</v>
+        <v>143.33</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T49" s="5" t="inlineStr">
         <is>
@@ -49632,12 +49656,12 @@
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
         <is>
-          <t>Compra 08/04/2025</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W49" s="3" t="inlineStr">
@@ -49649,36 +49673,28 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>1201060002</t>
+          <t>1603010001</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>MILTONIA 1SP</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>M12A40</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CESTA ASAS BLANCA</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>ORQUIDEAS</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>0</v>
@@ -49708,13 +49724,13 @@
         <v>92</v>
       </c>
       <c r="Q50" s="3" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="R50" s="3" t="n">
-        <v>113.33</v>
+        <v>96.67</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T50" s="5" t="inlineStr">
         <is>
@@ -49723,12 +49739,12 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 02/05/2025</t>
         </is>
       </c>
       <c r="W50" s="3" t="inlineStr">
@@ -49740,17 +49756,17 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>1306270009</t>
+          <t>1602010093</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>GLORIOSA</t>
+          <t>TERRARIO VIVANT GREEN TOWER MIX</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>C21A100</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
@@ -49760,16 +49776,16 @@
       </c>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H51" s="3" t="n">
         <v>0</v>
@@ -49784,7 +49800,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M51" s="4" t="n">
         <v>0</v>
@@ -49793,19 +49809,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q51" s="3" t="n">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="R51" s="3" t="n">
-        <v>113.33</v>
+        <v>176.67</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T51" s="5" t="inlineStr">
         <is>
@@ -49814,12 +49830,12 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
         <is>
-          <t>Compra 14/05/2025</t>
+          <t>Compra 08/04/2025</t>
         </is>
       </c>
       <c r="W51" s="3" t="inlineStr">
@@ -49831,17 +49847,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>1101030012</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA</t>
+          <t>CHAMAEDOREA</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>C24A100</t>
+          <t>C20A110</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
@@ -49890,13 +49906,13 @@
         <v>92</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R52" s="3" t="n">
-        <v>93.33</v>
+        <v>60</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T52" s="5" t="inlineStr">
         <is>
@@ -49905,12 +49921,12 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
         <is>
-          <t>Compra 03/05/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W52" s="3" t="inlineStr">
@@ -49922,17 +49938,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>1109080001</t>
+          <t>1501070008</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM</t>
+          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>M15COLG</t>
+          <t>M65A10</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -49942,12 +49958,12 @@
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -49966,7 +49982,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M53" s="4" t="n">
         <v>0</v>
@@ -49975,19 +49991,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q53" s="3" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="R53" s="3" t="n">
-        <v>60</v>
+        <v>196.67</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T53" s="5" t="inlineStr">
         <is>
@@ -49996,12 +50012,12 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 02/04/2025</t>
         </is>
       </c>
       <c r="W53" s="3" t="inlineStr">
@@ -50013,17 +50029,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>1602010086</t>
+          <t>1303050002</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>COMPOSICION PRIMULA + BULBOS</t>
+          <t>VRIESEA MADONNA</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>C19A20</t>
+          <t>M12A45</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -50033,16 +50049,16 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>0</v>
@@ -50057,7 +50073,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" s="4" t="n">
         <v>0</v>
@@ -50066,7 +50082,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>92</v>
@@ -50075,7 +50091,7 @@
         <v>92</v>
       </c>
       <c r="R54" s="3" t="n">
-        <v>306.67</v>
+        <v>613.33</v>
       </c>
       <c r="S54" s="4" t="n">
         <v>30</v>
@@ -50087,7 +50103,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.59€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 12.81€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -50104,17 +50120,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1106130020</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>PLANTA VERDE MIX EN COCO</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>C20A110</t>
+          <t>M9COLG</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -50148,7 +50164,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M55" s="4" t="n">
         <v>0</v>
@@ -50157,19 +50173,19 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="R55" s="3" t="n">
-        <v>60</v>
+        <v>106.67</v>
       </c>
       <c r="S55" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T55" s="5" t="inlineStr">
         <is>
@@ -50178,12 +50194,12 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
         <is>
-          <t>Compra 13/05/2025</t>
+          <t>Compra 29/04/2025</t>
         </is>
       </c>
       <c r="W55" s="3" t="inlineStr">
@@ -50195,32 +50211,24 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>1104020001</t>
+          <t>1601010005</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ASPARRAGUS SETACEUS PLUMOSUS</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>M12A30</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>PLATO PARA MACETA 14X11X3,5CM (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -50239,7 +50247,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M56" s="4" t="n">
         <v>0</v>
@@ -50248,7 +50256,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>92</v>
@@ -50269,7 +50277,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -50286,32 +50294,24 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>1102010001</t>
+          <t>1602010081</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>FICUS BENJAMINA ESPALDERA</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>C25A110</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO VIVANT SPICY BAO T-M</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -50330,7 +50330,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4" t="n">
         <v>0</v>
@@ -50339,7 +50339,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>92</v>
@@ -50360,7 +50360,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 13.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -50377,17 +50377,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>1501070008</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>NOTOCACTUS WERDERMANNIANUS MONSTRUOSO</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>M65A10</t>
+          <t>M6A20</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
@@ -50397,16 +50397,16 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H58" s="3" t="n">
         <v>0</v>
@@ -50421,7 +50421,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M58" s="4" t="n">
         <v>0</v>
@@ -50430,16 +50430,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="R58" s="3" t="n">
-        <v>196.67</v>
+        <v>613.33</v>
       </c>
       <c r="S58" s="4" t="n">
         <v>30</v>
@@ -50451,12 +50451,12 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
         <is>
-          <t>Compra 02/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="3" t="inlineStr">
@@ -50468,17 +50468,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>1602010072</t>
+          <t>1504010001</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO ECLOZ CHIC I</t>
+          <t>CACTUS FLOR</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M55A10</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -50488,12 +50488,12 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>CACTUS</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -50512,7 +50512,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="M59" s="4" t="n">
         <v>0</v>
@@ -50521,19 +50521,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>306.67</v>
+        <v>0</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T59" s="5" t="inlineStr">
         <is>
@@ -50542,12 +50542,12 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.33€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 31/05/2025</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -50559,17 +50559,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>1101040001</t>
+          <t>1101030012</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>PACHIRA AQUATICA</t>
+          <t>DRACAENA MARGINATA</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>C17A70</t>
+          <t>C24A100</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -50618,13 +50618,13 @@
         <v>92</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="R60" s="3" t="n">
-        <v>306.67</v>
+        <v>93.33</v>
       </c>
       <c r="S60" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="T60" s="5" t="inlineStr">
         <is>
@@ -50633,12 +50633,12 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.39€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 03/05/2025</t>
         </is>
       </c>
       <c r="W60" s="3" t="inlineStr">
@@ -50650,17 +50650,17 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>1304010003</t>
+          <t>1106130018</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SARRACENIA</t>
+          <t>POLYSCIA BALFOURIANA RAMIFICADA</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>M9A30</t>
+          <t>C23A50</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -50670,16 +50670,16 @@
       </c>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>0</v>
@@ -50694,7 +50694,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M61" s="4" t="n">
         <v>0</v>
@@ -50703,7 +50703,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>92</v>
@@ -50712,7 +50712,7 @@
         <v>92</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>613.33</v>
+        <v>306.67</v>
       </c>
       <c r="S61" s="4" t="n">
         <v>30</v>
@@ -50724,7 +50724,7 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.36€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
@@ -50741,17 +50741,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>1306060002</t>
+          <t>1201080000</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>CAMPANULA + CUBRE ZINK</t>
+          <t>PAPHIOPEDILUM FEMMA 1SP + CERAMICA</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M9A35</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -50761,12 +50761,12 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>ORQUIDEAS</t>
         </is>
       </c>
       <c r="G62" s="3" t="n">
@@ -50785,7 +50785,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M62" s="4" t="n">
         <v>0</v>
@@ -50794,16 +50794,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>286.67</v>
+        <v>613.33</v>
       </c>
       <c r="S62" s="4" t="n">
         <v>30</v>
@@ -50815,12 +50815,12 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
@@ -50832,17 +50832,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>1504010001</t>
+          <t>1304010003</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>CACTUS FLOR</t>
+          <t>SARRACENIA</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>M55A10</t>
+          <t>M9A30</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -50852,16 +50852,16 @@
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>CACTUS</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H63" s="3" t="n">
         <v>0</v>
@@ -50876,7 +50876,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="M63" s="4" t="n">
         <v>0</v>
@@ -50885,19 +50885,19 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q63" s="3" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R63" s="3" t="n">
-        <v>0</v>
+        <v>613.33</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T63" s="5" t="inlineStr">
         <is>
@@ -50906,12 +50906,12 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
         <is>
-          <t>Compra 31/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W63" s="3" t="inlineStr">
@@ -51014,32 +51014,24 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>1106020019</t>
+          <t>1601010000</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>ALOCASIA BAGINDA</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>M14A35</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>TERRARIO BASE JUNGLE T-S TAPON DE CORCHO</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS VERDES</t>
+          <t>COMPOSICIONES</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -51058,7 +51050,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M65" s="4" t="n">
         <v>0</v>
@@ -51067,19 +51059,19 @@
         <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q65" s="3" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="R65" s="3" t="n">
-        <v>143.33</v>
+        <v>306.67</v>
       </c>
       <c r="S65" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T65" s="5" t="inlineStr">
         <is>
@@ -51088,12 +51080,12 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
         <is>
-          <t>Compra 18/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W65" s="3" t="inlineStr">
@@ -51105,17 +51097,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>1306090001</t>
+          <t>1109080001</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>CURCUMA MIX</t>
+          <t>CHLOROPHYTUM</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>M13A50</t>
+          <t>M15COLG</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -51125,16 +51117,16 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>PLANTAS DE FLOR</t>
+          <t>PLANTAS VERDES</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H66" s="3" t="n">
         <v>0</v>
@@ -51164,13 +51156,13 @@
         <v>92</v>
       </c>
       <c r="Q66" s="3" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R66" s="3" t="n">
-        <v>213.33</v>
+        <v>60</v>
       </c>
       <c r="S66" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T66" s="5" t="inlineStr">
         <is>
@@ -51179,12 +51171,12 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
         <is>
-          <t>Compra 29/04/2025</t>
+          <t>Compra 13/05/2025</t>
         </is>
       </c>
       <c r="W66" s="3" t="inlineStr">
@@ -51196,28 +51188,36 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>1601010002</t>
+          <t>1306060002</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>TERRARIO HUEVO 19X23CM CON AGUJERO 9CM</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr"/>
-      <c r="D67" s="2" t="inlineStr"/>
+          <t>CAMPANULA + CUBRE ZINK</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>M55A10</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>COMPOSICIONES</t>
+          <t>PLANTAS DE FLOR</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H67" s="3" t="n">
         <v>0</v>
@@ -51232,7 +51232,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M67" s="4" t="n">
         <v>0</v>
@@ -51241,16 +51241,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>92</v>
       </c>
       <c r="Q67" s="3" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="R67" s="3" t="n">
-        <v>306.67</v>
+        <v>286.67</v>
       </c>
       <c r="S67" s="4" t="n">
         <v>30</v>
@@ -51262,12 +51262,12 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 11.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 30% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 18/04/2025</t>
         </is>
       </c>
       <c r="W67" s="3" t="inlineStr">
